--- a/Sample Data.xlsx
+++ b/Sample Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ehsan\OneDrive - Decision Spot\Documents\Projects\odsc22_conference\network_optimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://decisionspot-my.sharepoint.com/personal/ehsan_khodabandeh_decisionspot_com/Documents/Documents/Projects/odsc22_conference/network_optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C87397D-A92D-4017-8429-3A34A5B0AF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{2C87397D-A92D-4017-8429-3A34A5B0AF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F21FE0D4-4FB5-4B71-BBB9-0FB5764FAB82}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plants" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="339">
   <si>
     <t>Atlanta</t>
   </si>
@@ -1048,900 +1048,6 @@
     <t>US</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>C13</t>
-  </si>
-  <si>
-    <t>C14</t>
-  </si>
-  <si>
-    <t>C15</t>
-  </si>
-  <si>
-    <t>C16</t>
-  </si>
-  <si>
-    <t>C17</t>
-  </si>
-  <si>
-    <t>C18</t>
-  </si>
-  <si>
-    <t>C19</t>
-  </si>
-  <si>
-    <t>C20</t>
-  </si>
-  <si>
-    <t>C21</t>
-  </si>
-  <si>
-    <t>C22</t>
-  </si>
-  <si>
-    <t>C23</t>
-  </si>
-  <si>
-    <t>C24</t>
-  </si>
-  <si>
-    <t>C25</t>
-  </si>
-  <si>
-    <t>C26</t>
-  </si>
-  <si>
-    <t>C27</t>
-  </si>
-  <si>
-    <t>C28</t>
-  </si>
-  <si>
-    <t>C29</t>
-  </si>
-  <si>
-    <t>C30</t>
-  </si>
-  <si>
-    <t>C31</t>
-  </si>
-  <si>
-    <t>C32</t>
-  </si>
-  <si>
-    <t>C33</t>
-  </si>
-  <si>
-    <t>C34</t>
-  </si>
-  <si>
-    <t>C35</t>
-  </si>
-  <si>
-    <t>C36</t>
-  </si>
-  <si>
-    <t>C37</t>
-  </si>
-  <si>
-    <t>C38</t>
-  </si>
-  <si>
-    <t>C39</t>
-  </si>
-  <si>
-    <t>C40</t>
-  </si>
-  <si>
-    <t>C41</t>
-  </si>
-  <si>
-    <t>C42</t>
-  </si>
-  <si>
-    <t>C43</t>
-  </si>
-  <si>
-    <t>C44</t>
-  </si>
-  <si>
-    <t>C45</t>
-  </si>
-  <si>
-    <t>C46</t>
-  </si>
-  <si>
-    <t>C47</t>
-  </si>
-  <si>
-    <t>C48</t>
-  </si>
-  <si>
-    <t>C49</t>
-  </si>
-  <si>
-    <t>C50</t>
-  </si>
-  <si>
-    <t>C51</t>
-  </si>
-  <si>
-    <t>C52</t>
-  </si>
-  <si>
-    <t>C53</t>
-  </si>
-  <si>
-    <t>C54</t>
-  </si>
-  <si>
-    <t>C55</t>
-  </si>
-  <si>
-    <t>C56</t>
-  </si>
-  <si>
-    <t>C57</t>
-  </si>
-  <si>
-    <t>C58</t>
-  </si>
-  <si>
-    <t>C59</t>
-  </si>
-  <si>
-    <t>C60</t>
-  </si>
-  <si>
-    <t>C61</t>
-  </si>
-  <si>
-    <t>C62</t>
-  </si>
-  <si>
-    <t>C63</t>
-  </si>
-  <si>
-    <t>C64</t>
-  </si>
-  <si>
-    <t>C65</t>
-  </si>
-  <si>
-    <t>C66</t>
-  </si>
-  <si>
-    <t>C67</t>
-  </si>
-  <si>
-    <t>C68</t>
-  </si>
-  <si>
-    <t>C69</t>
-  </si>
-  <si>
-    <t>C70</t>
-  </si>
-  <si>
-    <t>C71</t>
-  </si>
-  <si>
-    <t>C72</t>
-  </si>
-  <si>
-    <t>C73</t>
-  </si>
-  <si>
-    <t>C74</t>
-  </si>
-  <si>
-    <t>C75</t>
-  </si>
-  <si>
-    <t>C76</t>
-  </si>
-  <si>
-    <t>C77</t>
-  </si>
-  <si>
-    <t>C78</t>
-  </si>
-  <si>
-    <t>C79</t>
-  </si>
-  <si>
-    <t>C80</t>
-  </si>
-  <si>
-    <t>C81</t>
-  </si>
-  <si>
-    <t>C82</t>
-  </si>
-  <si>
-    <t>C83</t>
-  </si>
-  <si>
-    <t>C84</t>
-  </si>
-  <si>
-    <t>C85</t>
-  </si>
-  <si>
-    <t>C86</t>
-  </si>
-  <si>
-    <t>C87</t>
-  </si>
-  <si>
-    <t>C88</t>
-  </si>
-  <si>
-    <t>C89</t>
-  </si>
-  <si>
-    <t>C90</t>
-  </si>
-  <si>
-    <t>C91</t>
-  </si>
-  <si>
-    <t>C92</t>
-  </si>
-  <si>
-    <t>C93</t>
-  </si>
-  <si>
-    <t>C94</t>
-  </si>
-  <si>
-    <t>C95</t>
-  </si>
-  <si>
-    <t>C96</t>
-  </si>
-  <si>
-    <t>C97</t>
-  </si>
-  <si>
-    <t>C98</t>
-  </si>
-  <si>
-    <t>C99</t>
-  </si>
-  <si>
-    <t>C100</t>
-  </si>
-  <si>
-    <t>C101</t>
-  </si>
-  <si>
-    <t>C102</t>
-  </si>
-  <si>
-    <t>C103</t>
-  </si>
-  <si>
-    <t>C104</t>
-  </si>
-  <si>
-    <t>C105</t>
-  </si>
-  <si>
-    <t>C106</t>
-  </si>
-  <si>
-    <t>C107</t>
-  </si>
-  <si>
-    <t>C108</t>
-  </si>
-  <si>
-    <t>C109</t>
-  </si>
-  <si>
-    <t>C110</t>
-  </si>
-  <si>
-    <t>C111</t>
-  </si>
-  <si>
-    <t>C112</t>
-  </si>
-  <si>
-    <t>C113</t>
-  </si>
-  <si>
-    <t>C114</t>
-  </si>
-  <si>
-    <t>C115</t>
-  </si>
-  <si>
-    <t>C116</t>
-  </si>
-  <si>
-    <t>C117</t>
-  </si>
-  <si>
-    <t>C118</t>
-  </si>
-  <si>
-    <t>C119</t>
-  </si>
-  <si>
-    <t>C120</t>
-  </si>
-  <si>
-    <t>C121</t>
-  </si>
-  <si>
-    <t>C122</t>
-  </si>
-  <si>
-    <t>C123</t>
-  </si>
-  <si>
-    <t>C124</t>
-  </si>
-  <si>
-    <t>C125</t>
-  </si>
-  <si>
-    <t>C126</t>
-  </si>
-  <si>
-    <t>C127</t>
-  </si>
-  <si>
-    <t>C128</t>
-  </si>
-  <si>
-    <t>C129</t>
-  </si>
-  <si>
-    <t>C130</t>
-  </si>
-  <si>
-    <t>C131</t>
-  </si>
-  <si>
-    <t>C132</t>
-  </si>
-  <si>
-    <t>C133</t>
-  </si>
-  <si>
-    <t>C134</t>
-  </si>
-  <si>
-    <t>C135</t>
-  </si>
-  <si>
-    <t>C136</t>
-  </si>
-  <si>
-    <t>C137</t>
-  </si>
-  <si>
-    <t>C138</t>
-  </si>
-  <si>
-    <t>C139</t>
-  </si>
-  <si>
-    <t>C140</t>
-  </si>
-  <si>
-    <t>C141</t>
-  </si>
-  <si>
-    <t>C142</t>
-  </si>
-  <si>
-    <t>C143</t>
-  </si>
-  <si>
-    <t>C144</t>
-  </si>
-  <si>
-    <t>C145</t>
-  </si>
-  <si>
-    <t>C146</t>
-  </si>
-  <si>
-    <t>C147</t>
-  </si>
-  <si>
-    <t>C148</t>
-  </si>
-  <si>
-    <t>C149</t>
-  </si>
-  <si>
-    <t>C150</t>
-  </si>
-  <si>
-    <t>C151</t>
-  </si>
-  <si>
-    <t>C152</t>
-  </si>
-  <si>
-    <t>C153</t>
-  </si>
-  <si>
-    <t>C154</t>
-  </si>
-  <si>
-    <t>C155</t>
-  </si>
-  <si>
-    <t>C156</t>
-  </si>
-  <si>
-    <t>C157</t>
-  </si>
-  <si>
-    <t>C158</t>
-  </si>
-  <si>
-    <t>C159</t>
-  </si>
-  <si>
-    <t>C160</t>
-  </si>
-  <si>
-    <t>C161</t>
-  </si>
-  <si>
-    <t>C162</t>
-  </si>
-  <si>
-    <t>C163</t>
-  </si>
-  <si>
-    <t>C164</t>
-  </si>
-  <si>
-    <t>C165</t>
-  </si>
-  <si>
-    <t>C166</t>
-  </si>
-  <si>
-    <t>C167</t>
-  </si>
-  <si>
-    <t>C168</t>
-  </si>
-  <si>
-    <t>C169</t>
-  </si>
-  <si>
-    <t>C170</t>
-  </si>
-  <si>
-    <t>C171</t>
-  </si>
-  <si>
-    <t>C172</t>
-  </si>
-  <si>
-    <t>C173</t>
-  </si>
-  <si>
-    <t>C174</t>
-  </si>
-  <si>
-    <t>C175</t>
-  </si>
-  <si>
-    <t>C176</t>
-  </si>
-  <si>
-    <t>C177</t>
-  </si>
-  <si>
-    <t>C178</t>
-  </si>
-  <si>
-    <t>C179</t>
-  </si>
-  <si>
-    <t>C180</t>
-  </si>
-  <si>
-    <t>C181</t>
-  </si>
-  <si>
-    <t>C182</t>
-  </si>
-  <si>
-    <t>C183</t>
-  </si>
-  <si>
-    <t>C184</t>
-  </si>
-  <si>
-    <t>C185</t>
-  </si>
-  <si>
-    <t>C186</t>
-  </si>
-  <si>
-    <t>C187</t>
-  </si>
-  <si>
-    <t>C188</t>
-  </si>
-  <si>
-    <t>C189</t>
-  </si>
-  <si>
-    <t>C190</t>
-  </si>
-  <si>
-    <t>C191</t>
-  </si>
-  <si>
-    <t>C192</t>
-  </si>
-  <si>
-    <t>C193</t>
-  </si>
-  <si>
-    <t>C194</t>
-  </si>
-  <si>
-    <t>C195</t>
-  </si>
-  <si>
-    <t>C196</t>
-  </si>
-  <si>
-    <t>C197</t>
-  </si>
-  <si>
-    <t>C198</t>
-  </si>
-  <si>
-    <t>C199</t>
-  </si>
-  <si>
-    <t>C200</t>
-  </si>
-  <si>
-    <t>C201</t>
-  </si>
-  <si>
-    <t>C202</t>
-  </si>
-  <si>
-    <t>C203</t>
-  </si>
-  <si>
-    <t>C204</t>
-  </si>
-  <si>
-    <t>C205</t>
-  </si>
-  <si>
-    <t>C206</t>
-  </si>
-  <si>
-    <t>C207</t>
-  </si>
-  <si>
-    <t>C208</t>
-  </si>
-  <si>
-    <t>C209</t>
-  </si>
-  <si>
-    <t>C210</t>
-  </si>
-  <si>
-    <t>C211</t>
-  </si>
-  <si>
-    <t>C212</t>
-  </si>
-  <si>
-    <t>C213</t>
-  </si>
-  <si>
-    <t>C214</t>
-  </si>
-  <si>
-    <t>C215</t>
-  </si>
-  <si>
-    <t>C216</t>
-  </si>
-  <si>
-    <t>C217</t>
-  </si>
-  <si>
-    <t>C218</t>
-  </si>
-  <si>
-    <t>C219</t>
-  </si>
-  <si>
-    <t>C220</t>
-  </si>
-  <si>
-    <t>C221</t>
-  </si>
-  <si>
-    <t>C222</t>
-  </si>
-  <si>
-    <t>C223</t>
-  </si>
-  <si>
-    <t>C224</t>
-  </si>
-  <si>
-    <t>C225</t>
-  </si>
-  <si>
-    <t>C226</t>
-  </si>
-  <si>
-    <t>C227</t>
-  </si>
-  <si>
-    <t>C228</t>
-  </si>
-  <si>
-    <t>C229</t>
-  </si>
-  <si>
-    <t>C230</t>
-  </si>
-  <si>
-    <t>C231</t>
-  </si>
-  <si>
-    <t>C232</t>
-  </si>
-  <si>
-    <t>C233</t>
-  </si>
-  <si>
-    <t>C234</t>
-  </si>
-  <si>
-    <t>C235</t>
-  </si>
-  <si>
-    <t>C236</t>
-  </si>
-  <si>
-    <t>C237</t>
-  </si>
-  <si>
-    <t>C238</t>
-  </si>
-  <si>
-    <t>C239</t>
-  </si>
-  <si>
-    <t>C240</t>
-  </si>
-  <si>
-    <t>C241</t>
-  </si>
-  <si>
-    <t>C242</t>
-  </si>
-  <si>
-    <t>C243</t>
-  </si>
-  <si>
-    <t>C244</t>
-  </si>
-  <si>
-    <t>C245</t>
-  </si>
-  <si>
-    <t>C246</t>
-  </si>
-  <si>
-    <t>C247</t>
-  </si>
-  <si>
-    <t>C248</t>
-  </si>
-  <si>
-    <t>C249</t>
-  </si>
-  <si>
-    <t>C250</t>
-  </si>
-  <si>
-    <t>C251</t>
-  </si>
-  <si>
-    <t>C252</t>
-  </si>
-  <si>
-    <t>C253</t>
-  </si>
-  <si>
-    <t>C254</t>
-  </si>
-  <si>
-    <t>C255</t>
-  </si>
-  <si>
-    <t>C256</t>
-  </si>
-  <si>
-    <t>C257</t>
-  </si>
-  <si>
-    <t>C258</t>
-  </si>
-  <si>
-    <t>C259</t>
-  </si>
-  <si>
-    <t>C260</t>
-  </si>
-  <si>
-    <t>C261</t>
-  </si>
-  <si>
-    <t>C262</t>
-  </si>
-  <si>
-    <t>C263</t>
-  </si>
-  <si>
-    <t>C264</t>
-  </si>
-  <si>
-    <t>C265</t>
-  </si>
-  <si>
-    <t>C266</t>
-  </si>
-  <si>
-    <t>C267</t>
-  </si>
-  <si>
-    <t>C268</t>
-  </si>
-  <si>
-    <t>C269</t>
-  </si>
-  <si>
-    <t>C270</t>
-  </si>
-  <si>
-    <t>C271</t>
-  </si>
-  <si>
-    <t>C272</t>
-  </si>
-  <si>
-    <t>C273</t>
-  </si>
-  <si>
-    <t>C274</t>
-  </si>
-  <si>
-    <t>C275</t>
-  </si>
-  <si>
-    <t>C276</t>
-  </si>
-  <si>
-    <t>C277</t>
-  </si>
-  <si>
-    <t>C278</t>
-  </si>
-  <si>
-    <t>C279</t>
-  </si>
-  <si>
-    <t>C280</t>
-  </si>
-  <si>
-    <t>C281</t>
-  </si>
-  <si>
-    <t>C282</t>
-  </si>
-  <si>
-    <t>C283</t>
-  </si>
-  <si>
-    <t>C284</t>
-  </si>
-  <si>
-    <t>C285</t>
-  </si>
-  <si>
-    <t>C286</t>
-  </si>
-  <si>
-    <t>C287</t>
-  </si>
-  <si>
-    <t>C288</t>
-  </si>
-  <si>
-    <t>C289</t>
-  </si>
-  <si>
-    <t>C290</t>
-  </si>
-  <si>
-    <t>C291</t>
-  </si>
-  <si>
-    <t>C292</t>
-  </si>
-  <si>
-    <t>C293</t>
-  </si>
-  <si>
-    <t>C294</t>
-  </si>
-  <si>
-    <t>C295</t>
-  </si>
-  <si>
-    <t>C296</t>
-  </si>
-  <si>
-    <t>C297</t>
-  </si>
-  <si>
-    <t>C298</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -1949,105 +1055,6 @@
   </si>
   <si>
     <t>Can Use</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>P6</t>
-  </si>
-  <si>
-    <t>P7</t>
-  </si>
-  <si>
-    <t>P8</t>
-  </si>
-  <si>
-    <t>P9</t>
-  </si>
-  <si>
-    <t>P10</t>
-  </si>
-  <si>
-    <t>P11</t>
-  </si>
-  <si>
-    <t>P12</t>
-  </si>
-  <si>
-    <t>P13</t>
-  </si>
-  <si>
-    <t>P14</t>
-  </si>
-  <si>
-    <t>P15</t>
-  </si>
-  <si>
-    <t>P16</t>
-  </si>
-  <si>
-    <t>P17</t>
-  </si>
-  <si>
-    <t>P18</t>
-  </si>
-  <si>
-    <t>P19</t>
-  </si>
-  <si>
-    <t>P20</t>
-  </si>
-  <si>
-    <t>P21</t>
-  </si>
-  <si>
-    <t>P22</t>
-  </si>
-  <si>
-    <t>P23</t>
-  </si>
-  <si>
-    <t>P24</t>
-  </si>
-  <si>
-    <t>P25</t>
-  </si>
-  <si>
-    <t>P26</t>
-  </si>
-  <si>
-    <t>P27</t>
-  </si>
-  <si>
-    <t>P28</t>
-  </si>
-  <si>
-    <t>P29</t>
-  </si>
-  <si>
-    <t>P30</t>
-  </si>
-  <si>
-    <t>P31</t>
-  </si>
-  <si>
-    <t>P32</t>
-  </si>
-  <si>
-    <t>P33</t>
   </si>
 </sst>
 </file>
@@ -2365,13 +1372,13 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.54296875" customWidth="1"/>
-    <col min="2" max="2" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.26953125" customWidth="1"/>
     <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
@@ -2399,7 +1406,7 @@
         <v>285</v>
       </c>
       <c r="F1" t="s">
-        <v>634</v>
+        <v>336</v>
       </c>
       <c r="G1" t="s">
         <v>286</v>
@@ -2408,18 +1415,19 @@
         <v>287</v>
       </c>
       <c r="I1" t="s">
-        <v>635</v>
+        <v>337</v>
       </c>
       <c r="J1" t="s">
-        <v>636</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>637</v>
+      <c r="B2" t="str">
+        <f>C2&amp;" Plant"</f>
+        <v>Salt Lake City Plant</v>
       </c>
       <c r="C2" t="s">
         <v>217</v>
@@ -2450,8 +1458,9 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>638</v>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B34" si="0">C3&amp;" Plant"</f>
+        <v>Oklahoma City Plant</v>
       </c>
       <c r="C3" t="s">
         <v>183</v>
@@ -2482,8 +1491,9 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>639</v>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>Kansas City Plant</v>
       </c>
       <c r="C4" t="s">
         <v>126</v>
@@ -2514,8 +1524,9 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>640</v>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>Jackson Plant</v>
       </c>
       <c r="C5" t="s">
         <v>116</v>
@@ -2546,8 +1557,9 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>641</v>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>Denver Plant</v>
       </c>
       <c r="C6" t="s">
         <v>63</v>
@@ -2578,8 +1590,9 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>642</v>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>Birmingham Plant</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -2610,8 +1623,9 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>643</v>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>Las Vegas Plant</v>
       </c>
       <c r="C8" t="s">
         <v>139</v>
@@ -2642,8 +1656,9 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>644</v>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>St. Louis Plant</v>
       </c>
       <c r="C9" t="s">
         <v>242</v>
@@ -2674,8 +1689,9 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>645</v>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>Baltimore Plant</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -2706,8 +1722,9 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>646</v>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>Columbia Plant</v>
       </c>
       <c r="C11" t="s">
         <v>53</v>
@@ -2738,8 +1755,9 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>647</v>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>Houston Plant</v>
       </c>
       <c r="C12" t="s">
         <v>111</v>
@@ -2770,8 +1788,9 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>648</v>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>Phoenix Plant</v>
       </c>
       <c r="C13" t="s">
         <v>193</v>
@@ -2802,8 +1821,9 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>649</v>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>Minneapolis Plant</v>
       </c>
       <c r="C14" t="s">
         <v>162</v>
@@ -2834,8 +1854,9 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>650</v>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>Orlando Plant</v>
       </c>
       <c r="C15" t="s">
         <v>187</v>
@@ -2866,8 +1887,9 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>651</v>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>Louisville Plant</v>
       </c>
       <c r="C16" t="s">
         <v>148</v>
@@ -2898,8 +1920,9 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>652</v>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>New Orleans Plant</v>
       </c>
       <c r="C17" t="s">
         <v>175</v>
@@ -2930,8 +1953,9 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>653</v>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>Memphis Plant</v>
       </c>
       <c r="C18" t="s">
         <v>157</v>
@@ -2962,8 +1986,9 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>654</v>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>Detroit Plant</v>
       </c>
       <c r="C19" t="s">
         <v>65</v>
@@ -2994,8 +2019,9 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>655</v>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>Cleveland Plant</v>
       </c>
       <c r="C20" t="s">
         <v>51</v>
@@ -3026,8 +2052,9 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>656</v>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>Boston Plant</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
@@ -3058,8 +2085,9 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>657</v>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>Atlanta Plant</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -3090,8 +2118,9 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>658</v>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>New York City Plant</v>
       </c>
       <c r="C23" t="s">
         <v>176</v>
@@ -3122,8 +2151,9 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>659</v>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>Dallas Plant</v>
       </c>
       <c r="C24" t="s">
         <v>57</v>
@@ -3154,8 +2184,9 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>660</v>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>Seattle Plant</v>
       </c>
       <c r="C25" t="s">
         <v>231</v>
@@ -3186,8 +2217,9 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>661</v>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>San Francisco Plant</v>
       </c>
       <c r="C26" t="s">
         <v>221</v>
@@ -3218,8 +2250,9 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>662</v>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>Pittsburgh Plant</v>
       </c>
       <c r="C27" t="s">
         <v>194</v>
@@ -3250,8 +2283,9 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>663</v>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>Columbus Plant</v>
       </c>
       <c r="C28" t="s">
         <v>54</v>
@@ -3282,8 +2316,9 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>664</v>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>Raleigh Plant</v>
       </c>
       <c r="C29" t="s">
         <v>202</v>
@@ -3314,8 +2349,9 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>665</v>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>Nassau-Suffolk Plant</v>
       </c>
       <c r="C30" t="s">
         <v>172</v>
@@ -3346,8 +2382,9 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>666</v>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>Indianapolis Plant</v>
       </c>
       <c r="C31" t="s">
         <v>114</v>
@@ -3378,8 +2415,9 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>667</v>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>Chicago Plant</v>
       </c>
       <c r="C32" t="s">
         <v>47</v>
@@ -3410,8 +2448,9 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>668</v>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>Reno Plant</v>
       </c>
       <c r="C33" t="s">
         <v>205</v>
@@ -3442,8 +2481,9 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>669</v>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>Los Angeles Plant</v>
       </c>
       <c r="C34" t="s">
         <v>147</v>
@@ -3483,13 +2523,13 @@
   <dimension ref="A1:I299"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.26953125" customWidth="1"/>
-    <col min="2" max="2" width="9.6328125" customWidth="1"/>
+    <col min="2" max="2" width="27.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.36328125" customWidth="1"/>
     <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
@@ -3516,7 +2556,7 @@
         <v>285</v>
       </c>
       <c r="F1" t="s">
-        <v>634</v>
+        <v>336</v>
       </c>
       <c r="G1" t="s">
         <v>286</v>
@@ -3532,8 +2572,9 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>336</v>
+      <c r="B2" t="str">
+        <f>C2&amp;" Customer"</f>
+        <v>Duluth Customer</v>
       </c>
       <c r="C2" t="s">
         <v>68</v>
@@ -3561,8 +2602,9 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>337</v>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B66" si="0">C3&amp;" Customer"</f>
+        <v>Santa Cruz Customer</v>
       </c>
       <c r="C3" t="s">
         <v>225</v>
@@ -3590,8 +2632,9 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>338</v>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>Parkersburg Customer</v>
       </c>
       <c r="C4" t="s">
         <v>189</v>
@@ -3619,8 +2662,9 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>339</v>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>Fort Collins Customer</v>
       </c>
       <c r="C5" t="s">
         <v>82</v>
@@ -3648,8 +2692,9 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>340</v>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>Jackson Customer</v>
       </c>
       <c r="C6" t="s">
         <v>116</v>
@@ -3677,8 +2722,9 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>341</v>
+      <c r="B7" t="str">
+        <f t="shared" si="0"/>
+        <v>Bloomington Customer</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -3706,8 +2752,9 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>342</v>
+      <c r="B8" t="str">
+        <f t="shared" si="0"/>
+        <v>Kokomo Customer</v>
       </c>
       <c r="C8" t="s">
         <v>130</v>
@@ -3735,8 +2782,9 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>343</v>
+      <c r="B9" t="str">
+        <f t="shared" si="0"/>
+        <v>Dothan Customer</v>
       </c>
       <c r="C9" t="s">
         <v>66</v>
@@ -3764,8 +2812,9 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>344</v>
+      <c r="B10" t="str">
+        <f t="shared" si="0"/>
+        <v>Buffalo Customer</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
@@ -3793,8 +2842,9 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>345</v>
+      <c r="B11" t="str">
+        <f t="shared" si="0"/>
+        <v>Vineland Customer</v>
       </c>
       <c r="C11" t="s">
         <v>263</v>
@@ -3822,8 +2872,9 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>346</v>
+      <c r="B12" t="str">
+        <f t="shared" si="0"/>
+        <v>Fresno Customer</v>
       </c>
       <c r="C12" t="s">
         <v>90</v>
@@ -3851,8 +2902,9 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>347</v>
+      <c r="B13" t="str">
+        <f t="shared" si="0"/>
+        <v>Norfolk Customer</v>
       </c>
       <c r="C13" t="s">
         <v>179</v>
@@ -3880,8 +2932,9 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>348</v>
+      <c r="B14" t="str">
+        <f t="shared" si="0"/>
+        <v>Springfield Customer</v>
       </c>
       <c r="C14" t="s">
         <v>240</v>
@@ -3909,8 +2962,9 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>349</v>
+      <c r="B15" t="str">
+        <f t="shared" si="0"/>
+        <v>Minneapolis Customer</v>
       </c>
       <c r="C15" t="s">
         <v>162</v>
@@ -3938,8 +2992,9 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>350</v>
+      <c r="B16" t="str">
+        <f t="shared" si="0"/>
+        <v>Fayatteville Customer</v>
       </c>
       <c r="C16" t="s">
         <v>77</v>
@@ -3967,8 +3022,9 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>351</v>
+      <c r="B17" t="str">
+        <f t="shared" si="0"/>
+        <v>Rochester Customer</v>
       </c>
       <c r="C17" t="s">
         <v>210</v>
@@ -3996,8 +3052,9 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>352</v>
+      <c r="B18" t="str">
+        <f t="shared" si="0"/>
+        <v>Pueblo Customer</v>
       </c>
       <c r="C18" t="s">
         <v>199</v>
@@ -4025,8 +3082,9 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>353</v>
+      <c r="B19" t="str">
+        <f t="shared" si="0"/>
+        <v>Lancaster Customer</v>
       </c>
       <c r="C19" t="s">
         <v>135</v>
@@ -4054,8 +3112,9 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>354</v>
+      <c r="B20" t="str">
+        <f t="shared" si="0"/>
+        <v>Johnson City Customer</v>
       </c>
       <c r="C20" t="s">
         <v>121</v>
@@ -4083,8 +3142,9 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>355</v>
+      <c r="B21" t="str">
+        <f t="shared" si="0"/>
+        <v>Punta Gorda Customer</v>
       </c>
       <c r="C21" t="s">
         <v>200</v>
@@ -4112,8 +3172,9 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>356</v>
+      <c r="B22" t="str">
+        <f t="shared" si="0"/>
+        <v>Florence Customer</v>
       </c>
       <c r="C22" t="s">
         <v>81</v>
@@ -4141,8 +3202,9 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>357</v>
+      <c r="B23" t="str">
+        <f t="shared" si="0"/>
+        <v>Laredo Customer</v>
       </c>
       <c r="C23" t="s">
         <v>137</v>
@@ -4170,8 +3232,9 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>358</v>
+      <c r="B24" t="str">
+        <f t="shared" si="0"/>
+        <v>Sumter Customer</v>
       </c>
       <c r="C24" t="s">
         <v>246</v>
@@ -4199,8 +3262,9 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>359</v>
+      <c r="B25" t="str">
+        <f t="shared" si="0"/>
+        <v>Fort Pierce Customer</v>
       </c>
       <c r="C25" t="s">
         <v>85</v>
@@ -4228,8 +3292,9 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>360</v>
+      <c r="B26" t="str">
+        <f t="shared" si="0"/>
+        <v>Corpus Christi Customer</v>
       </c>
       <c r="C26" t="s">
         <v>55</v>
@@ -4257,8 +3322,9 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>361</v>
+      <c r="B27" t="str">
+        <f t="shared" si="0"/>
+        <v>Lewiston Customer</v>
       </c>
       <c r="C27" t="s">
         <v>141</v>
@@ -4286,8 +3352,9 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>362</v>
+      <c r="B28" t="str">
+        <f t="shared" si="0"/>
+        <v>Wichita Falls Customer</v>
       </c>
       <c r="C28" t="s">
         <v>272</v>
@@ -4315,8 +3382,9 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>363</v>
+      <c r="B29" t="str">
+        <f t="shared" si="0"/>
+        <v>Medford Customer</v>
       </c>
       <c r="C29" t="s">
         <v>155</v>
@@ -4344,8 +3412,9 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>364</v>
+      <c r="B30" t="str">
+        <f t="shared" si="0"/>
+        <v>Boulder Customer</v>
       </c>
       <c r="C30" t="s">
         <v>32</v>
@@ -4373,8 +3442,9 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>365</v>
+      <c r="B31" t="str">
+        <f t="shared" si="0"/>
+        <v>Orange Customer</v>
       </c>
       <c r="C31" t="s">
         <v>186</v>
@@ -4402,8 +3472,9 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>366</v>
+      <c r="B32" t="str">
+        <f t="shared" si="0"/>
+        <v>Yolo Customer</v>
       </c>
       <c r="C32" t="s">
         <v>276</v>
@@ -4431,8 +3502,9 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>367</v>
+      <c r="B33" t="str">
+        <f t="shared" si="0"/>
+        <v>Monroe Customer</v>
       </c>
       <c r="C33" t="s">
         <v>166</v>
@@ -4460,8 +3532,9 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>368</v>
+      <c r="B34" t="str">
+        <f t="shared" si="0"/>
+        <v>Jamestown Customer</v>
       </c>
       <c r="C34" t="s">
         <v>118</v>
@@ -4489,8 +3562,9 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>369</v>
+      <c r="B35" t="str">
+        <f t="shared" si="0"/>
+        <v>Tallahassee Customer</v>
       </c>
       <c r="C35" t="s">
         <v>249</v>
@@ -4518,8 +3592,9 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>370</v>
+      <c r="B36" t="str">
+        <f t="shared" si="0"/>
+        <v>Lincoln Customer</v>
       </c>
       <c r="C36" t="s">
         <v>144</v>
@@ -4547,8 +3622,9 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>371</v>
+      <c r="B37" t="str">
+        <f t="shared" si="0"/>
+        <v>Rocky Mount Customer</v>
       </c>
       <c r="C37" t="s">
         <v>212</v>
@@ -4576,8 +3652,9 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>372</v>
+      <c r="B38" t="str">
+        <f t="shared" si="0"/>
+        <v>Brazoria Customer</v>
       </c>
       <c r="C38" t="s">
         <v>33</v>
@@ -4605,8 +3682,9 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>373</v>
+      <c r="B39" t="str">
+        <f t="shared" si="0"/>
+        <v>Billings Customer</v>
       </c>
       <c r="C39" t="s">
         <v>25</v>
@@ -4634,8 +3712,9 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>374</v>
+      <c r="B40" t="str">
+        <f t="shared" si="0"/>
+        <v>Jersey City Customer</v>
       </c>
       <c r="C40" t="s">
         <v>120</v>
@@ -4663,8 +3742,9 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>375</v>
+      <c r="B41" t="str">
+        <f t="shared" si="0"/>
+        <v>Hickory Customer</v>
       </c>
       <c r="C41" t="s">
         <v>109</v>
@@ -4692,8 +3772,9 @@
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>376</v>
+      <c r="B42" t="str">
+        <f t="shared" si="0"/>
+        <v>Florence Customer</v>
       </c>
       <c r="C42" t="s">
         <v>81</v>
@@ -4721,8 +3802,9 @@
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>377</v>
+      <c r="B43" t="str">
+        <f t="shared" si="0"/>
+        <v>Louisville Customer</v>
       </c>
       <c r="C43" t="s">
         <v>148</v>
@@ -4750,8 +3832,9 @@
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>378</v>
+      <c r="B44" t="str">
+        <f t="shared" si="0"/>
+        <v>Baton Rouge Customer</v>
       </c>
       <c r="C44" t="s">
         <v>20</v>
@@ -4779,8 +3862,9 @@
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>379</v>
+      <c r="B45" t="str">
+        <f t="shared" si="0"/>
+        <v>Redding Customer</v>
       </c>
       <c r="C45" t="s">
         <v>204</v>
@@ -4808,8 +3892,9 @@
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>380</v>
+      <c r="B46" t="str">
+        <f t="shared" si="0"/>
+        <v>Tyler Customer</v>
       </c>
       <c r="C46" t="s">
         <v>259</v>
@@ -4837,8 +3922,9 @@
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>381</v>
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>Columbia Customer</v>
       </c>
       <c r="C47" t="s">
         <v>53</v>
@@ -4866,8 +3952,9 @@
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>382</v>
+      <c r="B48" t="str">
+        <f t="shared" si="0"/>
+        <v>Charleston Customer</v>
       </c>
       <c r="C48" t="s">
         <v>43</v>
@@ -4895,8 +3982,9 @@
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>383</v>
+      <c r="B49" t="str">
+        <f t="shared" si="0"/>
+        <v>Madison Customer</v>
       </c>
       <c r="C49" t="s">
         <v>152</v>
@@ -4924,8 +4012,9 @@
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>384</v>
+      <c r="B50" t="str">
+        <f t="shared" si="0"/>
+        <v>Fort Wayne Customer</v>
       </c>
       <c r="C50" t="s">
         <v>88</v>
@@ -4953,8 +4042,9 @@
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>385</v>
+      <c r="B51" t="str">
+        <f t="shared" si="0"/>
+        <v>Bloomington Customer</v>
       </c>
       <c r="C51" t="s">
         <v>29</v>
@@ -4982,8 +4072,9 @@
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
-        <v>386</v>
+      <c r="B52" t="str">
+        <f t="shared" si="0"/>
+        <v>Lakeland Customer</v>
       </c>
       <c r="C52" t="s">
         <v>134</v>
@@ -5011,8 +4102,9 @@
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>387</v>
+      <c r="B53" t="str">
+        <f t="shared" si="0"/>
+        <v>Athens Customer</v>
       </c>
       <c r="C53" t="s">
         <v>13</v>
@@ -5040,8 +4132,9 @@
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
-        <v>388</v>
+      <c r="B54" t="str">
+        <f t="shared" si="0"/>
+        <v>Kansas City Customer</v>
       </c>
       <c r="C54" t="s">
         <v>126</v>
@@ -5069,8 +4162,9 @@
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>389</v>
+      <c r="B55" t="str">
+        <f t="shared" si="0"/>
+        <v>Benton Harbor Customer</v>
       </c>
       <c r="C55" t="s">
         <v>23</v>
@@ -5098,8 +4192,9 @@
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>390</v>
+      <c r="B56" t="str">
+        <f t="shared" si="0"/>
+        <v>Santa Barbara Customer</v>
       </c>
       <c r="C56" t="s">
         <v>224</v>
@@ -5127,8 +4222,9 @@
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>391</v>
+      <c r="B57" t="str">
+        <f t="shared" si="0"/>
+        <v>Glens Falls Customer</v>
       </c>
       <c r="C57" t="s">
         <v>95</v>
@@ -5156,8 +4252,9 @@
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>392</v>
+      <c r="B58" t="str">
+        <f t="shared" si="0"/>
+        <v>Galveston-Texas City Customer</v>
       </c>
       <c r="C58" t="s">
         <v>93</v>
@@ -5185,8 +4282,9 @@
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>393</v>
+      <c r="B59" t="str">
+        <f t="shared" si="0"/>
+        <v>Cumberland Customer</v>
       </c>
       <c r="C59" t="s">
         <v>56</v>
@@ -5214,8 +4312,9 @@
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>394</v>
+      <c r="B60" t="str">
+        <f t="shared" si="0"/>
+        <v>Saginaw Customer</v>
       </c>
       <c r="C60" t="s">
         <v>214</v>
@@ -5243,8 +4342,9 @@
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>395</v>
+      <c r="B61" t="str">
+        <f t="shared" si="0"/>
+        <v>Las Cruces Customer</v>
       </c>
       <c r="C61" t="s">
         <v>138</v>
@@ -5272,8 +4372,9 @@
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
-        <v>396</v>
+      <c r="B62" t="str">
+        <f t="shared" si="0"/>
+        <v>Albany Customer</v>
       </c>
       <c r="C62" t="s">
         <v>3</v>
@@ -5301,8 +4402,9 @@
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
-        <v>397</v>
+      <c r="B63" t="str">
+        <f t="shared" si="0"/>
+        <v>Johnstown Customer</v>
       </c>
       <c r="C63" t="s">
         <v>122</v>
@@ -5330,8 +4432,9 @@
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
-        <v>398</v>
+      <c r="B64" t="str">
+        <f t="shared" si="0"/>
+        <v>Atlanta Customer</v>
       </c>
       <c r="C64" t="s">
         <v>0</v>
@@ -5359,8 +4462,9 @@
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
-        <v>399</v>
+      <c r="B65" t="str">
+        <f t="shared" si="0"/>
+        <v>Houma Customer</v>
       </c>
       <c r="C65" t="s">
         <v>110</v>
@@ -5388,8 +4492,9 @@
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
-        <v>400</v>
+      <c r="B66" t="str">
+        <f t="shared" si="0"/>
+        <v>Greeley Customer</v>
       </c>
       <c r="C66" t="s">
         <v>100</v>
@@ -5417,8 +4522,9 @@
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
-        <v>401</v>
+      <c r="B67" t="str">
+        <f t="shared" ref="B67:B130" si="1">C67&amp;" Customer"</f>
+        <v>Salem Customer</v>
       </c>
       <c r="C67" t="s">
         <v>215</v>
@@ -5446,8 +4552,9 @@
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
-        <v>402</v>
+      <c r="B68" t="str">
+        <f t="shared" si="1"/>
+        <v>Tampa Customer</v>
       </c>
       <c r="C68" t="s">
         <v>250</v>
@@ -5475,8 +4582,9 @@
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
-        <v>403</v>
+      <c r="B69" t="str">
+        <f t="shared" si="1"/>
+        <v>State College Customer</v>
       </c>
       <c r="C69" t="s">
         <v>243</v>
@@ -5504,8 +4612,9 @@
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
-        <v>404</v>
+      <c r="B70" t="str">
+        <f t="shared" si="1"/>
+        <v>New Haven Customer</v>
       </c>
       <c r="C70" t="s">
         <v>173</v>
@@ -5533,8 +4642,9 @@
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
-        <v>405</v>
+      <c r="B71" t="str">
+        <f t="shared" si="1"/>
+        <v>Gary Customer</v>
       </c>
       <c r="C71" t="s">
         <v>94</v>
@@ -5562,8 +4672,9 @@
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
-        <v>406</v>
+      <c r="B72" t="str">
+        <f t="shared" si="1"/>
+        <v>Green Bay Customer</v>
       </c>
       <c r="C72" t="s">
         <v>101</v>
@@ -5591,8 +4702,9 @@
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
-        <v>407</v>
+      <c r="B73" t="str">
+        <f t="shared" si="1"/>
+        <v>New York City Customer</v>
       </c>
       <c r="C73" t="s">
         <v>176</v>
@@ -5620,8 +4732,9 @@
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
-        <v>408</v>
+      <c r="B74" t="str">
+        <f t="shared" si="1"/>
+        <v>Greensboro Customer</v>
       </c>
       <c r="C74" t="s">
         <v>102</v>
@@ -5649,8 +4762,9 @@
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
-        <v>409</v>
+      <c r="B75" t="str">
+        <f t="shared" si="1"/>
+        <v>Ocala Customer</v>
       </c>
       <c r="C75" t="s">
         <v>181</v>
@@ -5678,8 +4792,9 @@
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
-        <v>410</v>
+      <c r="B76" t="str">
+        <f t="shared" si="1"/>
+        <v>Joplin Customer</v>
       </c>
       <c r="C76" t="s">
         <v>123</v>
@@ -5707,8 +4822,9 @@
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
-        <v>411</v>
+      <c r="B77" t="str">
+        <f t="shared" si="1"/>
+        <v>Dutchess Customer</v>
       </c>
       <c r="C77" t="s">
         <v>69</v>
@@ -5736,8 +4852,9 @@
       <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
-        <v>412</v>
+      <c r="B78" t="str">
+        <f t="shared" si="1"/>
+        <v>Evansville Customer</v>
       </c>
       <c r="C78" t="s">
         <v>75</v>
@@ -5765,8 +4882,9 @@
       <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
-        <v>413</v>
+      <c r="B79" t="str">
+        <f t="shared" si="1"/>
+        <v>Allentown Customer</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
@@ -5794,8 +4912,9 @@
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
-        <v>414</v>
+      <c r="B80" t="str">
+        <f t="shared" si="1"/>
+        <v>New London Customer</v>
       </c>
       <c r="C80" t="s">
         <v>174</v>
@@ -5823,8 +4942,9 @@
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
-        <v>415</v>
+      <c r="B81" t="str">
+        <f t="shared" si="1"/>
+        <v>Yakima Customer</v>
       </c>
       <c r="C81" t="s">
         <v>275</v>
@@ -5852,8 +4972,9 @@
       <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
-        <v>416</v>
+      <c r="B82" t="str">
+        <f t="shared" si="1"/>
+        <v>Omaha Customer</v>
       </c>
       <c r="C82" t="s">
         <v>185</v>
@@ -5881,8 +5002,9 @@
       <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
-        <v>417</v>
+      <c r="B83" t="str">
+        <f t="shared" si="1"/>
+        <v>Bangor Customer</v>
       </c>
       <c r="C83" t="s">
         <v>18</v>
@@ -5910,8 +5032,9 @@
       <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
-        <v>418</v>
+      <c r="B84" t="str">
+        <f t="shared" si="1"/>
+        <v>Erie Customer</v>
       </c>
       <c r="C84" t="s">
         <v>73</v>
@@ -5939,8 +5062,9 @@
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
-        <v>419</v>
+      <c r="B85" t="str">
+        <f t="shared" si="1"/>
+        <v>Alexandria Customer</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -5968,8 +5092,9 @@
       <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
-        <v>420</v>
+      <c r="B86" t="str">
+        <f t="shared" si="1"/>
+        <v>Knoxville Customer</v>
       </c>
       <c r="C86" t="s">
         <v>129</v>
@@ -5997,8 +5122,9 @@
       <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
-        <v>421</v>
+      <c r="B87" t="str">
+        <f t="shared" si="1"/>
+        <v>Cincinnati Customer</v>
       </c>
       <c r="C87" t="s">
         <v>49</v>
@@ -6026,8 +5152,9 @@
       <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
-        <v>422</v>
+      <c r="B88" t="str">
+        <f t="shared" si="1"/>
+        <v>Waco Customer</v>
       </c>
       <c r="C88" t="s">
         <v>265</v>
@@ -6055,8 +5182,9 @@
       <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
-        <v>423</v>
+      <c r="B89" t="str">
+        <f t="shared" si="1"/>
+        <v>Richland Customer</v>
       </c>
       <c r="C89" t="s">
         <v>206</v>
@@ -6084,8 +5212,9 @@
       <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
-        <v>424</v>
+      <c r="B90" t="str">
+        <f t="shared" si="1"/>
+        <v>Waterloo Customer</v>
       </c>
       <c r="C90" t="s">
         <v>267</v>
@@ -6113,8 +5242,9 @@
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
-        <v>425</v>
+      <c r="B91" t="str">
+        <f t="shared" si="1"/>
+        <v>Toledo Customer</v>
       </c>
       <c r="C91" t="s">
         <v>253</v>
@@ -6142,8 +5272,9 @@
       <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
-        <v>426</v>
+      <c r="B92" t="str">
+        <f t="shared" si="1"/>
+        <v>Biloxi Customer</v>
       </c>
       <c r="C92" t="s">
         <v>26</v>
@@ -6171,8 +5302,9 @@
       <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
-        <v>427</v>
+      <c r="B93" t="str">
+        <f t="shared" si="1"/>
+        <v>Providence Customer</v>
       </c>
       <c r="C93" t="s">
         <v>197</v>
@@ -6200,8 +5332,9 @@
       <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
-        <v>428</v>
+      <c r="B94" t="str">
+        <f t="shared" si="1"/>
+        <v>St. Louis Customer</v>
       </c>
       <c r="C94" t="s">
         <v>242</v>
@@ -6229,8 +5362,9 @@
       <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
-        <v>429</v>
+      <c r="B95" t="str">
+        <f t="shared" si="1"/>
+        <v>Wilmington Customer</v>
       </c>
       <c r="C95" t="s">
         <v>274</v>
@@ -6258,8 +5392,9 @@
       <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
-        <v>430</v>
+      <c r="B96" t="str">
+        <f t="shared" si="1"/>
+        <v>Altoona Customer</v>
       </c>
       <c r="C96" t="s">
         <v>7</v>
@@ -6287,8 +5422,9 @@
       <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
-        <v>431</v>
+      <c r="B97" t="str">
+        <f t="shared" si="1"/>
+        <v>Newburgh Customer</v>
       </c>
       <c r="C97" t="s">
         <v>178</v>
@@ -6316,8 +5452,9 @@
       <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
-        <v>432</v>
+      <c r="B98" t="str">
+        <f t="shared" si="1"/>
+        <v>Dayton Customer</v>
       </c>
       <c r="C98" t="s">
         <v>60</v>
@@ -6345,8 +5482,9 @@
       <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
-        <v>433</v>
+      <c r="B99" t="str">
+        <f t="shared" si="1"/>
+        <v>Orlando Customer</v>
       </c>
       <c r="C99" t="s">
         <v>187</v>
@@ -6374,8 +5512,9 @@
       <c r="A100" s="1">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
-        <v>434</v>
+      <c r="B100" t="str">
+        <f t="shared" si="1"/>
+        <v>Beaumont Customer</v>
       </c>
       <c r="C100" t="s">
         <v>21</v>
@@ -6403,8 +5542,9 @@
       <c r="A101" s="1">
         <v>100</v>
       </c>
-      <c r="B101" t="s">
-        <v>435</v>
+      <c r="B101" t="str">
+        <f t="shared" si="1"/>
+        <v>Jacksonville Customer</v>
       </c>
       <c r="C101" t="s">
         <v>117</v>
@@ -6432,8 +5572,9 @@
       <c r="A102" s="1">
         <v>101</v>
       </c>
-      <c r="B102" t="s">
-        <v>436</v>
+      <c r="B102" t="str">
+        <f t="shared" si="1"/>
+        <v>Milwaukee Customer</v>
       </c>
       <c r="C102" t="s">
         <v>161</v>
@@ -6461,8 +5602,9 @@
       <c r="A103" s="1">
         <v>102</v>
       </c>
-      <c r="B103" t="s">
-        <v>437</v>
+      <c r="B103" t="str">
+        <f t="shared" si="1"/>
+        <v>Los Angeles Customer</v>
       </c>
       <c r="C103" t="s">
         <v>147</v>
@@ -6490,8 +5632,9 @@
       <c r="A104" s="1">
         <v>103</v>
       </c>
-      <c r="B104" t="s">
-        <v>438</v>
+      <c r="B104" t="str">
+        <f t="shared" si="1"/>
+        <v>Lafayette Customer</v>
       </c>
       <c r="C104" t="s">
         <v>132</v>
@@ -6519,8 +5662,9 @@
       <c r="A105" s="1">
         <v>104</v>
       </c>
-      <c r="B105" t="s">
-        <v>439</v>
+      <c r="B105" t="str">
+        <f t="shared" si="1"/>
+        <v>Pensacola Customer</v>
       </c>
       <c r="C105" t="s">
         <v>190</v>
@@ -6548,8 +5692,9 @@
       <c r="A106" s="1">
         <v>105</v>
       </c>
-      <c r="B106" t="s">
-        <v>440</v>
+      <c r="B106" t="str">
+        <f t="shared" si="1"/>
+        <v>Nassau-Suffolk Customer</v>
       </c>
       <c r="C106" t="s">
         <v>172</v>
@@ -6577,8 +5722,9 @@
       <c r="A107" s="1">
         <v>106</v>
       </c>
-      <c r="B107" t="s">
-        <v>441</v>
+      <c r="B107" t="str">
+        <f t="shared" si="1"/>
+        <v>Ann Arbor Customer</v>
       </c>
       <c r="C107" t="s">
         <v>9</v>
@@ -6606,8 +5752,9 @@
       <c r="A108" s="1">
         <v>107</v>
       </c>
-      <c r="B108" t="s">
-        <v>442</v>
+      <c r="B108" t="str">
+        <f t="shared" si="1"/>
+        <v>Columbus Customer</v>
       </c>
       <c r="C108" t="s">
         <v>54</v>
@@ -6635,8 +5782,9 @@
       <c r="A109" s="1">
         <v>108</v>
       </c>
-      <c r="B109" t="s">
-        <v>443</v>
+      <c r="B109" t="str">
+        <f t="shared" si="1"/>
+        <v>Pittsfield Customer</v>
       </c>
       <c r="C109" t="s">
         <v>195</v>
@@ -6664,8 +5812,9 @@
       <c r="A110" s="1">
         <v>109</v>
       </c>
-      <c r="B110" t="s">
-        <v>444</v>
+      <c r="B110" t="str">
+        <f t="shared" si="1"/>
+        <v>Gainesville Customer</v>
       </c>
       <c r="C110" t="s">
         <v>92</v>
@@ -6693,8 +5842,9 @@
       <c r="A111" s="1">
         <v>110</v>
       </c>
-      <c r="B111" t="s">
-        <v>445</v>
+      <c r="B111" t="str">
+        <f t="shared" si="1"/>
+        <v>Sheboygan Customer</v>
       </c>
       <c r="C111" t="s">
         <v>233</v>
@@ -6722,8 +5872,9 @@
       <c r="A112" s="1">
         <v>111</v>
       </c>
-      <c r="B112" t="s">
-        <v>446</v>
+      <c r="B112" t="str">
+        <f t="shared" si="1"/>
+        <v>Modesto Customer</v>
       </c>
       <c r="C112" t="s">
         <v>164</v>
@@ -6751,8 +5902,9 @@
       <c r="A113" s="1">
         <v>112</v>
       </c>
-      <c r="B113" t="s">
-        <v>447</v>
+      <c r="B113" t="str">
+        <f t="shared" si="1"/>
+        <v>Fort Lauderdale Customer</v>
       </c>
       <c r="C113" t="s">
         <v>83</v>
@@ -6780,8 +5932,9 @@
       <c r="A114" s="1">
         <v>113</v>
       </c>
-      <c r="B114" t="s">
-        <v>448</v>
+      <c r="B114" t="str">
+        <f t="shared" si="1"/>
+        <v>Fayetteville Customer</v>
       </c>
       <c r="C114" t="s">
         <v>78</v>
@@ -6809,8 +5962,9 @@
       <c r="A115" s="1">
         <v>114</v>
       </c>
-      <c r="B115" t="s">
-        <v>449</v>
+      <c r="B115" t="str">
+        <f t="shared" si="1"/>
+        <v>Syracuse Customer</v>
       </c>
       <c r="C115" t="s">
         <v>247</v>
@@ -6838,8 +5992,9 @@
       <c r="A116" s="1">
         <v>115</v>
       </c>
-      <c r="B116" t="s">
-        <v>450</v>
+      <c r="B116" t="str">
+        <f t="shared" si="1"/>
+        <v>Newark Customer</v>
       </c>
       <c r="C116" t="s">
         <v>177</v>
@@ -6867,8 +6022,9 @@
       <c r="A117" s="1">
         <v>116</v>
       </c>
-      <c r="B117" t="s">
-        <v>451</v>
+      <c r="B117" t="str">
+        <f t="shared" si="1"/>
+        <v>Fort Worth Customer</v>
       </c>
       <c r="C117" t="s">
         <v>89</v>
@@ -6896,8 +6052,9 @@
       <c r="A118" s="1">
         <v>117</v>
       </c>
-      <c r="B118" t="s">
-        <v>452</v>
+      <c r="B118" t="str">
+        <f t="shared" si="1"/>
+        <v>Des Moines Customer</v>
       </c>
       <c r="C118" t="s">
         <v>64</v>
@@ -6925,8 +6082,9 @@
       <c r="A119" s="1">
         <v>118</v>
       </c>
-      <c r="B119" t="s">
-        <v>453</v>
+      <c r="B119" t="str">
+        <f t="shared" si="1"/>
+        <v>Dallas Customer</v>
       </c>
       <c r="C119" t="s">
         <v>57</v>
@@ -6954,8 +6112,9 @@
       <c r="A120" s="1">
         <v>119</v>
       </c>
-      <c r="B120" t="s">
-        <v>454</v>
+      <c r="B120" t="str">
+        <f t="shared" si="1"/>
+        <v>Muncie Customer</v>
       </c>
       <c r="C120" t="s">
         <v>168</v>
@@ -6983,8 +6142,9 @@
       <c r="A121" s="1">
         <v>120</v>
       </c>
-      <c r="B121" t="s">
-        <v>455</v>
+      <c r="B121" t="str">
+        <f t="shared" si="1"/>
+        <v>Asheville Customer</v>
       </c>
       <c r="C121" t="s">
         <v>12</v>
@@ -7012,8 +6172,9 @@
       <c r="A122" s="1">
         <v>121</v>
       </c>
-      <c r="B122" t="s">
-        <v>456</v>
+      <c r="B122" t="str">
+        <f t="shared" si="1"/>
+        <v>Iowa City Customer</v>
       </c>
       <c r="C122" t="s">
         <v>115</v>
@@ -7041,8 +6202,9 @@
       <c r="A123" s="1">
         <v>122</v>
       </c>
-      <c r="B123" t="s">
-        <v>457</v>
+      <c r="B123" t="str">
+        <f t="shared" si="1"/>
+        <v>Utica Customer</v>
       </c>
       <c r="C123" t="s">
         <v>260</v>
@@ -7070,8 +6232,9 @@
       <c r="A124" s="1">
         <v>123</v>
       </c>
-      <c r="B124" t="s">
-        <v>458</v>
+      <c r="B124" t="str">
+        <f t="shared" si="1"/>
+        <v>Flagstaff Customer</v>
       </c>
       <c r="C124" t="s">
         <v>79</v>
@@ -7099,8 +6262,9 @@
       <c r="A125" s="1">
         <v>124</v>
       </c>
-      <c r="B125" t="s">
-        <v>459</v>
+      <c r="B125" t="str">
+        <f t="shared" si="1"/>
+        <v>Hartford Customer</v>
       </c>
       <c r="C125" t="s">
         <v>107</v>
@@ -7128,8 +6292,9 @@
       <c r="A126" s="1">
         <v>125</v>
       </c>
-      <c r="B126" t="s">
-        <v>460</v>
+      <c r="B126" t="str">
+        <f t="shared" si="1"/>
+        <v>San Jose Customer</v>
       </c>
       <c r="C126" t="s">
         <v>222</v>
@@ -7157,8 +6322,9 @@
       <c r="A127" s="1">
         <v>126</v>
       </c>
-      <c r="B127" t="s">
-        <v>461</v>
+      <c r="B127" t="str">
+        <f t="shared" si="1"/>
+        <v>Greenville Customer</v>
       </c>
       <c r="C127" t="s">
         <v>103</v>
@@ -7186,8 +6352,9 @@
       <c r="A128" s="1">
         <v>127</v>
       </c>
-      <c r="B128" t="s">
-        <v>462</v>
+      <c r="B128" t="str">
+        <f t="shared" si="1"/>
+        <v>Lexington Customer</v>
       </c>
       <c r="C128" t="s">
         <v>142</v>
@@ -7215,8 +6382,9 @@
       <c r="A129" s="1">
         <v>128</v>
       </c>
-      <c r="B129" t="s">
-        <v>463</v>
+      <c r="B129" t="str">
+        <f t="shared" si="1"/>
+        <v>Memphis Customer</v>
       </c>
       <c r="C129" t="s">
         <v>157</v>
@@ -7244,8 +6412,9 @@
       <c r="A130" s="1">
         <v>129</v>
       </c>
-      <c r="B130" t="s">
-        <v>464</v>
+      <c r="B130" t="str">
+        <f t="shared" si="1"/>
+        <v>Janesville Customer</v>
       </c>
       <c r="C130" t="s">
         <v>119</v>
@@ -7273,8 +6442,9 @@
       <c r="A131" s="1">
         <v>130</v>
       </c>
-      <c r="B131" t="s">
-        <v>465</v>
+      <c r="B131" t="str">
+        <f t="shared" ref="B131:B194" si="2">C131&amp;" Customer"</f>
+        <v>Goldsboro Customer</v>
       </c>
       <c r="C131" t="s">
         <v>96</v>
@@ -7302,8 +6472,9 @@
       <c r="A132" s="1">
         <v>131</v>
       </c>
-      <c r="B132" t="s">
-        <v>466</v>
+      <c r="B132" t="str">
+        <f t="shared" si="2"/>
+        <v>Mansfield Customer</v>
       </c>
       <c r="C132" t="s">
         <v>153</v>
@@ -7331,8 +6502,9 @@
       <c r="A133" s="1">
         <v>132</v>
       </c>
-      <c r="B133" t="s">
-        <v>467</v>
+      <c r="B133" t="str">
+        <f t="shared" si="2"/>
+        <v>Huntsville Customer</v>
       </c>
       <c r="C133" t="s">
         <v>113</v>
@@ -7360,8 +6532,9 @@
       <c r="A134" s="1">
         <v>133</v>
       </c>
-      <c r="B134" t="s">
-        <v>468</v>
+      <c r="B134" t="str">
+        <f t="shared" si="2"/>
+        <v>Chico Customer</v>
       </c>
       <c r="C134" t="s">
         <v>48</v>
@@ -7389,8 +6562,9 @@
       <c r="A135" s="1">
         <v>134</v>
       </c>
-      <c r="B135" t="s">
-        <v>469</v>
+      <c r="B135" t="str">
+        <f t="shared" si="2"/>
+        <v>Hattiesburg Customer</v>
       </c>
       <c r="C135" t="s">
         <v>108</v>
@@ -7418,8 +6592,9 @@
       <c r="A136" s="1">
         <v>135</v>
       </c>
-      <c r="B136" t="s">
-        <v>470</v>
+      <c r="B136" t="str">
+        <f t="shared" si="2"/>
+        <v>Macon Customer</v>
       </c>
       <c r="C136" t="s">
         <v>151</v>
@@ -7447,8 +6622,9 @@
       <c r="A137" s="1">
         <v>136</v>
       </c>
-      <c r="B137" t="s">
-        <v>471</v>
+      <c r="B137" t="str">
+        <f t="shared" si="2"/>
+        <v>Elkhart Customer</v>
       </c>
       <c r="C137" t="s">
         <v>72</v>
@@ -7476,8 +6652,9 @@
       <c r="A138" s="1">
         <v>137</v>
       </c>
-      <c r="B138" t="s">
-        <v>472</v>
+      <c r="B138" t="str">
+        <f t="shared" si="2"/>
+        <v>Canton Customer</v>
       </c>
       <c r="C138" t="s">
         <v>39</v>
@@ -7505,8 +6682,9 @@
       <c r="A139" s="1">
         <v>138</v>
       </c>
-      <c r="B139" t="s">
-        <v>473</v>
+      <c r="B139" t="str">
+        <f t="shared" si="2"/>
+        <v>Dover Customer</v>
       </c>
       <c r="C139" t="s">
         <v>67</v>
@@ -7534,8 +6712,9 @@
       <c r="A140" s="1">
         <v>139</v>
       </c>
-      <c r="B140" t="s">
-        <v>474</v>
+      <c r="B140" t="str">
+        <f t="shared" si="2"/>
+        <v>Kankakee Customer</v>
       </c>
       <c r="C140" t="s">
         <v>125</v>
@@ -7563,8 +6742,9 @@
       <c r="A141" s="1">
         <v>140</v>
       </c>
-      <c r="B141" t="s">
-        <v>475</v>
+      <c r="B141" t="str">
+        <f t="shared" si="2"/>
+        <v>Bremerton Customer</v>
       </c>
       <c r="C141" t="s">
         <v>34</v>
@@ -7592,8 +6772,9 @@
       <c r="A142" s="1">
         <v>141</v>
       </c>
-      <c r="B142" t="s">
-        <v>476</v>
+      <c r="B142" t="str">
+        <f t="shared" si="2"/>
+        <v>Scranton Customer</v>
       </c>
       <c r="C142" t="s">
         <v>230</v>
@@ -7621,8 +6802,9 @@
       <c r="A143" s="1">
         <v>142</v>
       </c>
-      <c r="B143" t="s">
-        <v>477</v>
+      <c r="B143" t="str">
+        <f t="shared" si="2"/>
+        <v>Eugene Customer</v>
       </c>
       <c r="C143" t="s">
         <v>74</v>
@@ -7650,8 +6832,9 @@
       <c r="A144" s="1">
         <v>143</v>
       </c>
-      <c r="B144" t="s">
-        <v>478</v>
+      <c r="B144" t="str">
+        <f t="shared" si="2"/>
+        <v>Fort Myers Customer</v>
       </c>
       <c r="C144" t="s">
         <v>84</v>
@@ -7679,8 +6862,9 @@
       <c r="A145" s="1">
         <v>144</v>
       </c>
-      <c r="B145" t="s">
-        <v>479</v>
+      <c r="B145" t="str">
+        <f t="shared" si="2"/>
+        <v>Riverside Customer</v>
       </c>
       <c r="C145" t="s">
         <v>208</v>
@@ -7708,8 +6892,9 @@
       <c r="A146" s="1">
         <v>145</v>
       </c>
-      <c r="B146" t="s">
-        <v>480</v>
+      <c r="B146" t="str">
+        <f t="shared" si="2"/>
+        <v>Little Rock Customer</v>
       </c>
       <c r="C146" t="s">
         <v>145</v>
@@ -7737,8 +6922,9 @@
       <c r="A147" s="1">
         <v>146</v>
       </c>
-      <c r="B147" t="s">
-        <v>481</v>
+      <c r="B147" t="str">
+        <f t="shared" si="2"/>
+        <v>Cedar Rapids Customer</v>
       </c>
       <c r="C147" t="s">
         <v>41</v>
@@ -7766,8 +6952,9 @@
       <c r="A148" s="1">
         <v>147</v>
       </c>
-      <c r="B148" t="s">
-        <v>482</v>
+      <c r="B148" t="str">
+        <f t="shared" si="2"/>
+        <v>Barnstable Customer</v>
       </c>
       <c r="C148" t="s">
         <v>19</v>
@@ -7795,8 +6982,9 @@
       <c r="A149" s="1">
         <v>148</v>
       </c>
-      <c r="B149" t="s">
-        <v>483</v>
+      <c r="B149" t="str">
+        <f t="shared" si="2"/>
+        <v>Lake Charles Customer</v>
       </c>
       <c r="C149" t="s">
         <v>133</v>
@@ -7824,8 +7012,9 @@
       <c r="A150" s="1">
         <v>149</v>
       </c>
-      <c r="B150" t="s">
-        <v>484</v>
+      <c r="B150" t="str">
+        <f t="shared" si="2"/>
+        <v>Longview Customer</v>
       </c>
       <c r="C150" t="s">
         <v>146</v>
@@ -7853,8 +7042,9 @@
       <c r="A151" s="1">
         <v>150</v>
       </c>
-      <c r="B151" t="s">
-        <v>485</v>
+      <c r="B151" t="str">
+        <f t="shared" si="2"/>
+        <v>Wausau Customer</v>
       </c>
       <c r="C151" t="s">
         <v>268</v>
@@ -7882,8 +7072,9 @@
       <c r="A152" s="1">
         <v>151</v>
       </c>
-      <c r="B152" t="s">
-        <v>486</v>
+      <c r="B152" t="str">
+        <f t="shared" si="2"/>
+        <v>Bellingham Customer</v>
       </c>
       <c r="C152" t="s">
         <v>22</v>
@@ -7911,8 +7102,9 @@
       <c r="A153" s="1">
         <v>152</v>
       </c>
-      <c r="B153" t="s">
-        <v>487</v>
+      <c r="B153" t="str">
+        <f t="shared" si="2"/>
+        <v>Rochester Customer</v>
       </c>
       <c r="C153" t="s">
         <v>210</v>
@@ -7940,8 +7132,9 @@
       <c r="A154" s="1">
         <v>153</v>
       </c>
-      <c r="B154" t="s">
-        <v>488</v>
+      <c r="B154" t="str">
+        <f t="shared" si="2"/>
+        <v>Davenport Customer</v>
       </c>
       <c r="C154" t="s">
         <v>59</v>
@@ -7969,8 +7162,9 @@
       <c r="A155" s="1">
         <v>154</v>
       </c>
-      <c r="B155" t="s">
-        <v>489</v>
+      <c r="B155" t="str">
+        <f t="shared" si="2"/>
+        <v>Grand Forks Customer</v>
       </c>
       <c r="C155" t="s">
         <v>97</v>
@@ -7998,8 +7192,9 @@
       <c r="A156" s="1">
         <v>155</v>
       </c>
-      <c r="B156" t="s">
-        <v>490</v>
+      <c r="B156" t="str">
+        <f t="shared" si="2"/>
+        <v>Sacramento Customer</v>
       </c>
       <c r="C156" t="s">
         <v>213</v>
@@ -8027,8 +7222,9 @@
       <c r="A157" s="1">
         <v>156</v>
       </c>
-      <c r="B157" t="s">
-        <v>491</v>
+      <c r="B157" t="str">
+        <f t="shared" si="2"/>
+        <v>Springfield Customer</v>
       </c>
       <c r="C157" t="s">
         <v>240</v>
@@ -8056,8 +7252,9 @@
       <c r="A158" s="1">
         <v>157</v>
       </c>
-      <c r="B158" t="s">
-        <v>492</v>
+      <c r="B158" t="str">
+        <f t="shared" si="2"/>
+        <v>Lynchburg Customer</v>
       </c>
       <c r="C158" t="s">
         <v>150</v>
@@ -8085,8 +7282,9 @@
       <c r="A159" s="1">
         <v>158</v>
       </c>
-      <c r="B159" t="s">
-        <v>493</v>
+      <c r="B159" t="str">
+        <f t="shared" si="2"/>
+        <v>Bergen Customer</v>
       </c>
       <c r="C159" t="s">
         <v>24</v>
@@ -8114,8 +7312,9 @@
       <c r="A160" s="1">
         <v>159</v>
       </c>
-      <c r="B160" t="s">
-        <v>494</v>
+      <c r="B160" t="str">
+        <f t="shared" si="2"/>
+        <v>Jackson Customer</v>
       </c>
       <c r="C160" t="s">
         <v>116</v>
@@ -8143,8 +7342,9 @@
       <c r="A161" s="1">
         <v>160</v>
       </c>
-      <c r="B161" t="s">
-        <v>495</v>
+      <c r="B161" t="str">
+        <f t="shared" si="2"/>
+        <v>Wheeling Customer</v>
       </c>
       <c r="C161" t="s">
         <v>270</v>
@@ -8172,8 +7372,9 @@
       <c r="A162" s="1">
         <v>161</v>
       </c>
-      <c r="B162" t="s">
-        <v>496</v>
+      <c r="B162" t="str">
+        <f t="shared" si="2"/>
+        <v>Mobile Customer</v>
       </c>
       <c r="C162" t="s">
         <v>163</v>
@@ -8201,8 +7402,9 @@
       <c r="A163" s="1">
         <v>162</v>
       </c>
-      <c r="B163" t="s">
-        <v>497</v>
+      <c r="B163" t="str">
+        <f t="shared" si="2"/>
+        <v>Detroit Customer</v>
       </c>
       <c r="C163" t="s">
         <v>65</v>
@@ -8230,8 +7432,9 @@
       <c r="A164" s="1">
         <v>163</v>
       </c>
-      <c r="B164" t="s">
-        <v>498</v>
+      <c r="B164" t="str">
+        <f t="shared" si="2"/>
+        <v>New Orleans Customer</v>
       </c>
       <c r="C164" t="s">
         <v>175</v>
@@ -8259,8 +7462,9 @@
       <c r="A165" s="1">
         <v>164</v>
       </c>
-      <c r="B165" t="s">
-        <v>499</v>
+      <c r="B165" t="str">
+        <f t="shared" si="2"/>
+        <v>Oklahoma City Customer</v>
       </c>
       <c r="C165" t="s">
         <v>183</v>
@@ -8288,8 +7492,9 @@
       <c r="A166" s="1">
         <v>165</v>
       </c>
-      <c r="B166" t="s">
-        <v>500</v>
+      <c r="B166" t="str">
+        <f t="shared" si="2"/>
+        <v>Indianapolis Customer</v>
       </c>
       <c r="C166" t="s">
         <v>114</v>
@@ -8317,8 +7522,9 @@
       <c r="A167" s="1">
         <v>166</v>
       </c>
-      <c r="B167" t="s">
-        <v>501</v>
+      <c r="B167" t="str">
+        <f t="shared" si="2"/>
+        <v>Champaign Customer</v>
       </c>
       <c r="C167" t="s">
         <v>42</v>
@@ -8346,8 +7552,9 @@
       <c r="A168" s="1">
         <v>167</v>
       </c>
-      <c r="B168" t="s">
-        <v>502</v>
+      <c r="B168" t="str">
+        <f t="shared" si="2"/>
+        <v>Columbia Customer</v>
       </c>
       <c r="C168" t="s">
         <v>53</v>
@@ -8375,8 +7582,9 @@
       <c r="A169" s="1">
         <v>168</v>
       </c>
-      <c r="B169" t="s">
-        <v>503</v>
+      <c r="B169" t="str">
+        <f t="shared" si="2"/>
+        <v>Terre Haute Customer</v>
       </c>
       <c r="C169" t="s">
         <v>251</v>
@@ -8404,8 +7612,9 @@
       <c r="A170" s="1">
         <v>169</v>
       </c>
-      <c r="B170" t="s">
-        <v>504</v>
+      <c r="B170" t="str">
+        <f t="shared" si="2"/>
+        <v>Savannah Customer</v>
       </c>
       <c r="C170" t="s">
         <v>229</v>
@@ -8433,8 +7642,9 @@
       <c r="A171" s="1">
         <v>170</v>
       </c>
-      <c r="B171" t="s">
-        <v>505</v>
+      <c r="B171" t="str">
+        <f t="shared" si="2"/>
+        <v>Huntington Customer</v>
       </c>
       <c r="C171" t="s">
         <v>112</v>
@@ -8462,8 +7672,9 @@
       <c r="A172" s="1">
         <v>171</v>
       </c>
-      <c r="B172" t="s">
-        <v>506</v>
+      <c r="B172" t="str">
+        <f t="shared" si="2"/>
+        <v>Portland Customer</v>
       </c>
       <c r="C172" t="s">
         <v>196</v>
@@ -8491,8 +7702,9 @@
       <c r="A173" s="1">
         <v>172</v>
       </c>
-      <c r="B173" t="s">
-        <v>507</v>
+      <c r="B173" t="str">
+        <f t="shared" si="2"/>
+        <v>Augusta Customer</v>
       </c>
       <c r="C173" t="s">
         <v>14</v>
@@ -8520,8 +7732,9 @@
       <c r="A174" s="1">
         <v>173</v>
       </c>
-      <c r="B174" t="s">
-        <v>508</v>
+      <c r="B174" t="str">
+        <f t="shared" si="2"/>
+        <v>Kenosha Customer</v>
       </c>
       <c r="C174" t="s">
         <v>127</v>
@@ -8549,8 +7762,9 @@
       <c r="A175" s="1">
         <v>174</v>
       </c>
-      <c r="B175" t="s">
-        <v>509</v>
+      <c r="B175" t="str">
+        <f t="shared" si="2"/>
+        <v>Salinas Customer</v>
       </c>
       <c r="C175" t="s">
         <v>216</v>
@@ -8578,8 +7792,9 @@
       <c r="A176" s="1">
         <v>175</v>
       </c>
-      <c r="B176" t="s">
-        <v>510</v>
+      <c r="B176" t="str">
+        <f t="shared" si="2"/>
+        <v>Hamilton Customer</v>
       </c>
       <c r="C176" t="s">
         <v>105</v>
@@ -8607,8 +7822,9 @@
       <c r="A177" s="1">
         <v>176</v>
       </c>
-      <c r="B177" t="s">
-        <v>511</v>
+      <c r="B177" t="str">
+        <f t="shared" si="2"/>
+        <v>Columbus Customer</v>
       </c>
       <c r="C177" t="s">
         <v>54</v>
@@ -8636,8 +7852,9 @@
       <c r="A178" s="1">
         <v>177</v>
       </c>
-      <c r="B178" t="s">
-        <v>512</v>
+      <c r="B178" t="str">
+        <f t="shared" si="2"/>
+        <v>Hagerston Customer</v>
       </c>
       <c r="C178" t="s">
         <v>104</v>
@@ -8665,8 +7882,9 @@
       <c r="A179" s="1">
         <v>178</v>
       </c>
-      <c r="B179" t="s">
-        <v>513</v>
+      <c r="B179" t="str">
+        <f t="shared" si="2"/>
+        <v>Greenville Customer</v>
       </c>
       <c r="C179" t="s">
         <v>103</v>
@@ -8694,8 +7912,9 @@
       <c r="A180" s="1">
         <v>179</v>
       </c>
-      <c r="B180" t="s">
-        <v>514</v>
+      <c r="B180" t="str">
+        <f t="shared" si="2"/>
+        <v>South Bend Customer</v>
       </c>
       <c r="C180" t="s">
         <v>238</v>
@@ -8723,8 +7942,9 @@
       <c r="A181" s="1">
         <v>180</v>
       </c>
-      <c r="B181" t="s">
-        <v>515</v>
+      <c r="B181" t="str">
+        <f t="shared" si="2"/>
+        <v>Lansing Customer</v>
       </c>
       <c r="C181" t="s">
         <v>136</v>
@@ -8752,8 +7972,9 @@
       <c r="A182" s="1">
         <v>181</v>
       </c>
-      <c r="B182" t="s">
-        <v>516</v>
+      <c r="B182" t="str">
+        <f t="shared" si="2"/>
+        <v>St. Cloud Customer</v>
       </c>
       <c r="C182" t="s">
         <v>241</v>
@@ -8781,8 +8002,9 @@
       <c r="A183" s="1">
         <v>182</v>
       </c>
-      <c r="B183" t="s">
-        <v>517</v>
+      <c r="B183" t="str">
+        <f t="shared" si="2"/>
+        <v>Myrtle Beach Customer</v>
       </c>
       <c r="C183" t="s">
         <v>169</v>
@@ -8810,8 +8032,9 @@
       <c r="A184" s="1">
         <v>183</v>
       </c>
-      <c r="B184" t="s">
-        <v>518</v>
+      <c r="B184" t="str">
+        <f t="shared" si="2"/>
+        <v>Tucson Customer</v>
       </c>
       <c r="C184" t="s">
         <v>256</v>
@@ -8839,8 +8062,9 @@
       <c r="A185" s="1">
         <v>184</v>
       </c>
-      <c r="B185" t="s">
-        <v>519</v>
+      <c r="B185" t="str">
+        <f t="shared" si="2"/>
+        <v>Cleveland Customer</v>
       </c>
       <c r="C185" t="s">
         <v>51</v>
@@ -8868,8 +8092,9 @@
       <c r="A186" s="1">
         <v>185</v>
       </c>
-      <c r="B186" t="s">
-        <v>520</v>
+      <c r="B186" t="str">
+        <f t="shared" si="2"/>
+        <v>Bryan Customer</v>
       </c>
       <c r="C186" t="s">
         <v>36</v>
@@ -8897,8 +8122,9 @@
       <c r="A187" s="1">
         <v>186</v>
       </c>
-      <c r="B187" t="s">
-        <v>521</v>
+      <c r="B187" t="str">
+        <f t="shared" si="2"/>
+        <v>Birmingham Customer</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -8926,8 +8152,9 @@
       <c r="A188" s="1">
         <v>187</v>
       </c>
-      <c r="B188" t="s">
-        <v>522</v>
+      <c r="B188" t="str">
+        <f t="shared" si="2"/>
+        <v>Anniston Customer</v>
       </c>
       <c r="C188" t="s">
         <v>10</v>
@@ -8955,8 +8182,9 @@
       <c r="A189" s="1">
         <v>188</v>
       </c>
-      <c r="B189" t="s">
-        <v>523</v>
+      <c r="B189" t="str">
+        <f t="shared" si="2"/>
+        <v>West Palm Beach Customer</v>
       </c>
       <c r="C189" t="s">
         <v>269</v>
@@ -8984,8 +8212,9 @@
       <c r="A190" s="1">
         <v>189</v>
       </c>
-      <c r="B190" t="s">
-        <v>524</v>
+      <c r="B190" t="str">
+        <f t="shared" si="2"/>
+        <v>Roanoke Customer</v>
       </c>
       <c r="C190" t="s">
         <v>209</v>
@@ -9013,8 +8242,9 @@
       <c r="A191" s="1">
         <v>190</v>
       </c>
-      <c r="B191" t="s">
-        <v>525</v>
+      <c r="B191" t="str">
+        <f t="shared" si="2"/>
+        <v>Stockton Customer</v>
       </c>
       <c r="C191" t="s">
         <v>245</v>
@@ -9042,8 +8272,9 @@
       <c r="A192" s="1">
         <v>191</v>
       </c>
-      <c r="B192" t="s">
-        <v>526</v>
+      <c r="B192" t="str">
+        <f t="shared" si="2"/>
+        <v>Shreveport Customer</v>
       </c>
       <c r="C192" t="s">
         <v>235</v>
@@ -9071,8 +8302,9 @@
       <c r="A193" s="1">
         <v>192</v>
       </c>
-      <c r="B193" t="s">
-        <v>527</v>
+      <c r="B193" t="str">
+        <f t="shared" si="2"/>
+        <v>Racine Customer</v>
       </c>
       <c r="C193" t="s">
         <v>201</v>
@@ -9100,8 +8332,9 @@
       <c r="A194" s="1">
         <v>193</v>
       </c>
-      <c r="B194" t="s">
-        <v>528</v>
+      <c r="B194" t="str">
+        <f t="shared" si="2"/>
+        <v>Las Vegas Customer</v>
       </c>
       <c r="C194" t="s">
         <v>139</v>
@@ -9129,8 +8362,9 @@
       <c r="A195" s="1">
         <v>194</v>
       </c>
-      <c r="B195" t="s">
-        <v>529</v>
+      <c r="B195" t="str">
+        <f t="shared" ref="B195:B258" si="3">C195&amp;" Customer"</f>
+        <v>Brownsville Customer</v>
       </c>
       <c r="C195" t="s">
         <v>35</v>
@@ -9158,8 +8392,9 @@
       <c r="A196" s="1">
         <v>195</v>
       </c>
-      <c r="B196" t="s">
-        <v>530</v>
+      <c r="B196" t="str">
+        <f t="shared" si="3"/>
+        <v>Chattanooga Customer</v>
       </c>
       <c r="C196" t="s">
         <v>46</v>
@@ -9187,8 +8422,9 @@
       <c r="A197" s="1">
         <v>196</v>
       </c>
-      <c r="B197" t="s">
-        <v>531</v>
+      <c r="B197" t="str">
+        <f t="shared" si="3"/>
+        <v>Sioux Falls Customer</v>
       </c>
       <c r="C197" t="s">
         <v>237</v>
@@ -9216,8 +8452,9 @@
       <c r="A198" s="1">
         <v>197</v>
       </c>
-      <c r="B198" t="s">
-        <v>532</v>
+      <c r="B198" t="str">
+        <f t="shared" si="3"/>
+        <v>Portland Customer</v>
       </c>
       <c r="C198" t="s">
         <v>196</v>
@@ -9245,8 +8482,9 @@
       <c r="A199" s="1">
         <v>198</v>
       </c>
-      <c r="B199" t="s">
-        <v>533</v>
+      <c r="B199" t="str">
+        <f t="shared" si="3"/>
+        <v>Melbourne Customer</v>
       </c>
       <c r="C199" t="s">
         <v>156</v>
@@ -9274,8 +8512,9 @@
       <c r="A200" s="1">
         <v>199</v>
       </c>
-      <c r="B200" t="s">
-        <v>534</v>
+      <c r="B200" t="str">
+        <f t="shared" si="3"/>
+        <v>Albany Customer</v>
       </c>
       <c r="C200" t="s">
         <v>3</v>
@@ -9303,8 +8542,9 @@
       <c r="A201" s="1">
         <v>200</v>
       </c>
-      <c r="B201" t="s">
-        <v>535</v>
+      <c r="B201" t="str">
+        <f t="shared" si="3"/>
+        <v>Ventura Customer</v>
       </c>
       <c r="C201" t="s">
         <v>262</v>
@@ -9332,8 +8572,9 @@
       <c r="A202" s="1">
         <v>201</v>
       </c>
-      <c r="B202" t="s">
-        <v>536</v>
+      <c r="B202" t="str">
+        <f t="shared" si="3"/>
+        <v>Daytona Beach Customer</v>
       </c>
       <c r="C202" t="s">
         <v>61</v>
@@ -9361,8 +8602,9 @@
       <c r="A203" s="1">
         <v>202</v>
       </c>
-      <c r="B203" t="s">
-        <v>537</v>
+      <c r="B203" t="str">
+        <f t="shared" si="3"/>
+        <v>Grand Junction Customer</v>
       </c>
       <c r="C203" t="s">
         <v>98</v>
@@ -9390,8 +8632,9 @@
       <c r="A204" s="1">
         <v>203</v>
       </c>
-      <c r="B204" t="s">
-        <v>538</v>
+      <c r="B204" t="str">
+        <f t="shared" si="3"/>
+        <v>Monmouth Customer</v>
       </c>
       <c r="C204" t="s">
         <v>165</v>
@@ -9419,8 +8662,9 @@
       <c r="A205" s="1">
         <v>204</v>
       </c>
-      <c r="B205" t="s">
-        <v>539</v>
+      <c r="B205" t="str">
+        <f t="shared" si="3"/>
+        <v>Trenton Customer</v>
       </c>
       <c r="C205" t="s">
         <v>255</v>
@@ -9448,8 +8692,9 @@
       <c r="A206" s="1">
         <v>205</v>
       </c>
-      <c r="B206" t="s">
-        <v>540</v>
+      <c r="B206" t="str">
+        <f t="shared" si="3"/>
+        <v>El Paso Customer</v>
       </c>
       <c r="C206" t="s">
         <v>71</v>
@@ -9477,8 +8722,9 @@
       <c r="A207" s="1">
         <v>206</v>
       </c>
-      <c r="B207" t="s">
-        <v>541</v>
+      <c r="B207" t="str">
+        <f t="shared" si="3"/>
+        <v>Harrisburg Customer</v>
       </c>
       <c r="C207" t="s">
         <v>106</v>
@@ -9506,8 +8752,9 @@
       <c r="A208" s="1">
         <v>207</v>
       </c>
-      <c r="B208" t="s">
-        <v>542</v>
+      <c r="B208" t="str">
+        <f t="shared" si="3"/>
+        <v>Appleton Customer</v>
       </c>
       <c r="C208" t="s">
         <v>11</v>
@@ -9535,8 +8782,9 @@
       <c r="A209" s="1">
         <v>208</v>
       </c>
-      <c r="B209" t="s">
-        <v>543</v>
+      <c r="B209" t="str">
+        <f t="shared" si="3"/>
+        <v>Panama City Customer</v>
       </c>
       <c r="C209" t="s">
         <v>188</v>
@@ -9564,8 +8812,9 @@
       <c r="A210" s="1">
         <v>209</v>
       </c>
-      <c r="B210" t="s">
-        <v>544</v>
+      <c r="B210" t="str">
+        <f t="shared" si="3"/>
+        <v>Akron Customer</v>
       </c>
       <c r="C210" t="s">
         <v>2</v>
@@ -9593,8 +8842,9 @@
       <c r="A211" s="1">
         <v>210</v>
       </c>
-      <c r="B211" t="s">
-        <v>545</v>
+      <c r="B211" t="str">
+        <f t="shared" si="3"/>
+        <v>Lima Customer</v>
       </c>
       <c r="C211" t="s">
         <v>143</v>
@@ -9622,8 +8872,9 @@
       <c r="A212" s="1">
         <v>211</v>
       </c>
-      <c r="B212" t="s">
-        <v>546</v>
+      <c r="B212" t="str">
+        <f t="shared" si="3"/>
+        <v>Boise City Customer</v>
       </c>
       <c r="C212" t="s">
         <v>30</v>
@@ -9651,8 +8902,9 @@
       <c r="A213" s="1">
         <v>212</v>
       </c>
-      <c r="B213" t="s">
-        <v>547</v>
+      <c r="B213" t="str">
+        <f t="shared" si="3"/>
+        <v>Tacoma Customer</v>
       </c>
       <c r="C213" t="s">
         <v>248</v>
@@ -9680,8 +8932,9 @@
       <c r="A214" s="1">
         <v>213</v>
       </c>
-      <c r="B214" t="s">
-        <v>548</v>
+      <c r="B214" t="str">
+        <f t="shared" si="3"/>
+        <v>Philadelphia Customer</v>
       </c>
       <c r="C214" t="s">
         <v>192</v>
@@ -9709,8 +8962,9 @@
       <c r="A215" s="1">
         <v>214</v>
       </c>
-      <c r="B215" t="s">
-        <v>549</v>
+      <c r="B215" t="str">
+        <f t="shared" si="3"/>
+        <v>Fort Smith Customer</v>
       </c>
       <c r="C215" t="s">
         <v>86</v>
@@ -9738,8 +8992,9 @@
       <c r="A216" s="1">
         <v>215</v>
       </c>
-      <c r="B216" t="s">
-        <v>550</v>
+      <c r="B216" t="str">
+        <f t="shared" si="3"/>
+        <v>San Diego Customer</v>
       </c>
       <c r="C216" t="s">
         <v>220</v>
@@ -9767,8 +9022,9 @@
       <c r="A217" s="1">
         <v>216</v>
       </c>
-      <c r="B217" t="s">
-        <v>551</v>
+      <c r="B217" t="str">
+        <f t="shared" si="3"/>
+        <v>Springfield Customer</v>
       </c>
       <c r="C217" t="s">
         <v>240</v>
@@ -9796,8 +9052,9 @@
       <c r="A218" s="1">
         <v>217</v>
       </c>
-      <c r="B218" t="s">
-        <v>552</v>
+      <c r="B218" t="str">
+        <f t="shared" si="3"/>
+        <v>Lafayette Customer</v>
       </c>
       <c r="C218" t="s">
         <v>132</v>
@@ -9825,8 +9082,9 @@
       <c r="A219" s="1">
         <v>218</v>
       </c>
-      <c r="B219" t="s">
-        <v>553</v>
+      <c r="B219" t="str">
+        <f t="shared" si="3"/>
+        <v>Naples Customer</v>
       </c>
       <c r="C219" t="s">
         <v>170</v>
@@ -9854,8 +9112,9 @@
       <c r="A220" s="1">
         <v>219</v>
       </c>
-      <c r="B220" t="s">
-        <v>554</v>
+      <c r="B220" t="str">
+        <f t="shared" si="3"/>
+        <v>Topeka Customer</v>
       </c>
       <c r="C220" t="s">
         <v>254</v>
@@ -9883,8 +9142,9 @@
       <c r="A221" s="1">
         <v>220</v>
       </c>
-      <c r="B221" t="s">
-        <v>555</v>
+      <c r="B221" t="str">
+        <f t="shared" si="3"/>
+        <v>Jacksonville Customer</v>
       </c>
       <c r="C221" t="s">
         <v>117</v>
@@ -9912,8 +9172,9 @@
       <c r="A222" s="1">
         <v>221</v>
       </c>
-      <c r="B222" t="s">
-        <v>556</v>
+      <c r="B222" t="str">
+        <f t="shared" si="3"/>
+        <v>Fort Walton Beach Customer</v>
       </c>
       <c r="C222" t="s">
         <v>87</v>
@@ -9941,8 +9202,9 @@
       <c r="A223" s="1">
         <v>222</v>
       </c>
-      <c r="B223" t="s">
-        <v>557</v>
+      <c r="B223" t="str">
+        <f t="shared" si="3"/>
+        <v>Spokane Customer</v>
       </c>
       <c r="C223" t="s">
         <v>239</v>
@@ -9970,8 +9232,9 @@
       <c r="A224" s="1">
         <v>223</v>
       </c>
-      <c r="B224" t="s">
-        <v>558</v>
+      <c r="B224" t="str">
+        <f t="shared" si="3"/>
+        <v>San Antonio Customer</v>
       </c>
       <c r="C224" t="s">
         <v>219</v>
@@ -9999,8 +9262,9 @@
       <c r="A225" s="1">
         <v>224</v>
       </c>
-      <c r="B225" t="s">
-        <v>559</v>
+      <c r="B225" t="str">
+        <f t="shared" si="3"/>
+        <v>Colorado Springs Customer</v>
       </c>
       <c r="C225" t="s">
         <v>52</v>
@@ -10028,8 +9292,9 @@
       <c r="A226" s="1">
         <v>225</v>
       </c>
-      <c r="B226" t="s">
-        <v>560</v>
+      <c r="B226" t="str">
+        <f t="shared" si="3"/>
+        <v>Tuscaloosa Customer</v>
       </c>
       <c r="C226" t="s">
         <v>258</v>
@@ -10057,8 +9322,9 @@
       <c r="A227" s="1">
         <v>226</v>
       </c>
-      <c r="B227" t="s">
-        <v>561</v>
+      <c r="B227" t="str">
+        <f t="shared" si="3"/>
+        <v>Eau Claire Customer</v>
       </c>
       <c r="C227" t="s">
         <v>70</v>
@@ -10086,8 +9352,9 @@
       <c r="A228" s="1">
         <v>227</v>
       </c>
-      <c r="B228" t="s">
-        <v>562</v>
+      <c r="B228" t="str">
+        <f t="shared" si="3"/>
+        <v>Gadsden Customer</v>
       </c>
       <c r="C228" t="s">
         <v>91</v>
@@ -10115,8 +9382,9 @@
       <c r="A229" s="1">
         <v>228</v>
       </c>
-      <c r="B229" t="s">
-        <v>563</v>
+      <c r="B229" t="str">
+        <f t="shared" si="3"/>
+        <v>Flint Customer</v>
       </c>
       <c r="C229" t="s">
         <v>80</v>
@@ -10144,8 +9412,9 @@
       <c r="A230" s="1">
         <v>229</v>
       </c>
-      <c r="B230" t="s">
-        <v>564</v>
+      <c r="B230" t="str">
+        <f t="shared" si="3"/>
+        <v>San Luis Obispo Customer</v>
       </c>
       <c r="C230" t="s">
         <v>223</v>
@@ -10173,8 +9442,9 @@
       <c r="A231" s="1">
         <v>230</v>
       </c>
-      <c r="B231" t="s">
-        <v>565</v>
+      <c r="B231" t="str">
+        <f t="shared" si="3"/>
+        <v>Vallejo Customer</v>
       </c>
       <c r="C231" t="s">
         <v>261</v>
@@ -10202,8 +9472,9 @@
       <c r="A232" s="1">
         <v>231</v>
       </c>
-      <c r="B232" t="s">
-        <v>566</v>
+      <c r="B232" t="str">
+        <f t="shared" si="3"/>
+        <v>Sharon Customer</v>
       </c>
       <c r="C232" t="s">
         <v>232</v>
@@ -10231,8 +9502,9 @@
       <c r="A233" s="1">
         <v>232</v>
       </c>
-      <c r="B233" t="s">
-        <v>567</v>
+      <c r="B233" t="str">
+        <f t="shared" si="3"/>
+        <v>Lawton Customer</v>
       </c>
       <c r="C233" t="s">
         <v>140</v>
@@ -10260,8 +9532,9 @@
       <c r="A234" s="1">
         <v>233</v>
       </c>
-      <c r="B234" t="s">
-        <v>568</v>
+      <c r="B234" t="str">
+        <f t="shared" si="3"/>
+        <v>Tulsa Customer</v>
       </c>
       <c r="C234" t="s">
         <v>257</v>
@@ -10289,8 +9562,9 @@
       <c r="A235" s="1">
         <v>234</v>
       </c>
-      <c r="B235" t="s">
-        <v>569</v>
+      <c r="B235" t="str">
+        <f t="shared" si="3"/>
+        <v>Santa Fe Customer</v>
       </c>
       <c r="C235" t="s">
         <v>226</v>
@@ -10318,8 +9592,9 @@
       <c r="A236" s="1">
         <v>235</v>
       </c>
-      <c r="B236" t="s">
-        <v>570</v>
+      <c r="B236" t="str">
+        <f t="shared" si="3"/>
+        <v>Phoenix Customer</v>
       </c>
       <c r="C236" t="s">
         <v>193</v>
@@ -10347,8 +9622,9 @@
       <c r="A237" s="1">
         <v>236</v>
       </c>
-      <c r="B237" t="s">
-        <v>571</v>
+      <c r="B237" t="str">
+        <f t="shared" si="3"/>
+        <v>Middlesex Customer</v>
       </c>
       <c r="C237" t="s">
         <v>160</v>
@@ -10376,8 +9652,9 @@
       <c r="A238" s="1">
         <v>237</v>
       </c>
-      <c r="B238" t="s">
-        <v>572</v>
+      <c r="B238" t="str">
+        <f t="shared" si="3"/>
+        <v>Lubbock Customer</v>
       </c>
       <c r="C238" t="s">
         <v>149</v>
@@ -10405,8 +9682,9 @@
       <c r="A239" s="1">
         <v>238</v>
       </c>
-      <c r="B239" t="s">
-        <v>573</v>
+      <c r="B239" t="str">
+        <f t="shared" si="3"/>
+        <v>Charlottesville Customer</v>
       </c>
       <c r="C239" t="s">
         <v>45</v>
@@ -10434,8 +9712,9 @@
       <c r="A240" s="1">
         <v>239</v>
       </c>
-      <c r="B240" t="s">
-        <v>574</v>
+      <c r="B240" t="str">
+        <f t="shared" si="3"/>
+        <v>Youngstown Customer</v>
       </c>
       <c r="C240" t="s">
         <v>278</v>
@@ -10463,8 +9742,9 @@
       <c r="A241" s="1">
         <v>240</v>
       </c>
-      <c r="B241" t="s">
-        <v>575</v>
+      <c r="B241" t="str">
+        <f t="shared" si="3"/>
+        <v>Houston Customer</v>
       </c>
       <c r="C241" t="s">
         <v>111</v>
@@ -10492,8 +9772,9 @@
       <c r="A242" s="1">
         <v>241</v>
       </c>
-      <c r="B242" t="s">
-        <v>576</v>
+      <c r="B242" t="str">
+        <f t="shared" si="3"/>
+        <v>McAllen Customer</v>
       </c>
       <c r="C242" t="s">
         <v>154</v>
@@ -10521,8 +9802,9 @@
       <c r="A243" s="1">
         <v>242</v>
       </c>
-      <c r="B243" t="s">
-        <v>577</v>
+      <c r="B243" t="str">
+        <f t="shared" si="3"/>
+        <v>Baltimore Customer</v>
       </c>
       <c r="C243" t="s">
         <v>17</v>
@@ -10550,8 +9832,9 @@
       <c r="A244" s="1">
         <v>243</v>
       </c>
-      <c r="B244" t="s">
-        <v>578</v>
+      <c r="B244" t="str">
+        <f t="shared" si="3"/>
+        <v>Reading Customer</v>
       </c>
       <c r="C244" t="s">
         <v>203</v>
@@ -10579,8 +9862,9 @@
       <c r="A245" s="1">
         <v>244</v>
       </c>
-      <c r="B245" t="s">
-        <v>579</v>
+      <c r="B245" t="str">
+        <f t="shared" si="3"/>
+        <v>San Angelo Customer</v>
       </c>
       <c r="C245" t="s">
         <v>218</v>
@@ -10608,8 +9892,9 @@
       <c r="A246" s="1">
         <v>245</v>
       </c>
-      <c r="B246" t="s">
-        <v>580</v>
+      <c r="B246" t="str">
+        <f t="shared" si="3"/>
+        <v>Cape May Customer</v>
       </c>
       <c r="C246" t="s">
         <v>40</v>
@@ -10637,8 +9922,9 @@
       <c r="A247" s="1">
         <v>246</v>
       </c>
-      <c r="B247" t="s">
-        <v>581</v>
+      <c r="B247" t="str">
+        <f t="shared" si="3"/>
+        <v>Merced Customer</v>
       </c>
       <c r="C247" t="s">
         <v>158</v>
@@ -10666,8 +9952,9 @@
       <c r="A248" s="1">
         <v>247</v>
       </c>
-      <c r="B248" t="s">
-        <v>582</v>
+      <c r="B248" t="str">
+        <f t="shared" si="3"/>
+        <v>Nashville Customer</v>
       </c>
       <c r="C248" t="s">
         <v>171</v>
@@ -10695,8 +9982,9 @@
       <c r="A249" s="1">
         <v>248</v>
       </c>
-      <c r="B249" t="s">
-        <v>583</v>
+      <c r="B249" t="str">
+        <f t="shared" si="3"/>
+        <v>Chicago Customer</v>
       </c>
       <c r="C249" t="s">
         <v>47</v>
@@ -10724,8 +10012,9 @@
       <c r="A250" s="1">
         <v>249</v>
       </c>
-      <c r="B250" t="s">
-        <v>584</v>
+      <c r="B250" t="str">
+        <f t="shared" si="3"/>
+        <v>Pittsburgh Customer</v>
       </c>
       <c r="C250" t="s">
         <v>194</v>
@@ -10753,8 +10042,9 @@
       <c r="A251" s="1">
         <v>250</v>
       </c>
-      <c r="B251" t="s">
-        <v>585</v>
+      <c r="B251" t="str">
+        <f t="shared" si="3"/>
+        <v>Fargo Customer</v>
       </c>
       <c r="C251" t="s">
         <v>76</v>
@@ -10782,8 +10072,9 @@
       <c r="A252" s="1">
         <v>251</v>
       </c>
-      <c r="B252" t="s">
-        <v>586</v>
+      <c r="B252" t="str">
+        <f t="shared" si="3"/>
+        <v>Yuma Customer</v>
       </c>
       <c r="C252" t="s">
         <v>280</v>
@@ -10811,8 +10102,9 @@
       <c r="A253" s="1">
         <v>252</v>
       </c>
-      <c r="B253" t="s">
-        <v>587</v>
+      <c r="B253" t="str">
+        <f t="shared" si="3"/>
+        <v>Seattle Customer</v>
       </c>
       <c r="C253" t="s">
         <v>231</v>
@@ -10840,8 +10132,9 @@
       <c r="A254" s="1">
         <v>253</v>
       </c>
-      <c r="B254" t="s">
-        <v>588</v>
+      <c r="B254" t="str">
+        <f t="shared" si="3"/>
+        <v>Sherman-Denison Customer</v>
       </c>
       <c r="C254" t="s">
         <v>234</v>
@@ -10869,8 +10162,9 @@
       <c r="A255" s="1">
         <v>254</v>
       </c>
-      <c r="B255" t="s">
-        <v>589</v>
+      <c r="B255" t="str">
+        <f t="shared" si="3"/>
+        <v>Yuba City Customer</v>
       </c>
       <c r="C255" t="s">
         <v>279</v>
@@ -10898,8 +10192,9 @@
       <c r="A256" s="1">
         <v>255</v>
       </c>
-      <c r="B256" t="s">
-        <v>590</v>
+      <c r="B256" t="str">
+        <f t="shared" si="3"/>
+        <v>Charlotte Customer</v>
       </c>
       <c r="C256" t="s">
         <v>44</v>
@@ -10927,8 +10222,9 @@
       <c r="A257" s="1">
         <v>256</v>
       </c>
-      <c r="B257" t="s">
-        <v>591</v>
+      <c r="B257" t="str">
+        <f t="shared" si="3"/>
+        <v>Bakersfield Customer</v>
       </c>
       <c r="C257" t="s">
         <v>16</v>
@@ -10956,8 +10252,9 @@
       <c r="A258" s="1">
         <v>257</v>
       </c>
-      <c r="B258" t="s">
-        <v>592</v>
+      <c r="B258" t="str">
+        <f t="shared" si="3"/>
+        <v>Richmond Customer</v>
       </c>
       <c r="C258" t="s">
         <v>207</v>
@@ -10985,8 +10282,9 @@
       <c r="A259" s="1">
         <v>258</v>
       </c>
-      <c r="B259" t="s">
-        <v>593</v>
+      <c r="B259" t="str">
+        <f t="shared" ref="B259:B299" si="4">C259&amp;" Customer"</f>
+        <v>Sarasota Customer</v>
       </c>
       <c r="C259" t="s">
         <v>228</v>
@@ -11014,8 +10312,9 @@
       <c r="A260" s="1">
         <v>259</v>
       </c>
-      <c r="B260" t="s">
-        <v>594</v>
+      <c r="B260" t="str">
+        <f t="shared" si="4"/>
+        <v>Oakland Customer</v>
       </c>
       <c r="C260" t="s">
         <v>180</v>
@@ -11043,8 +10342,9 @@
       <c r="A261" s="1">
         <v>260</v>
       </c>
-      <c r="B261" t="s">
-        <v>595</v>
+      <c r="B261" t="str">
+        <f t="shared" si="4"/>
+        <v>Austin Customer</v>
       </c>
       <c r="C261" t="s">
         <v>15</v>
@@ -11072,8 +10372,9 @@
       <c r="A262" s="1">
         <v>261</v>
       </c>
-      <c r="B262" t="s">
-        <v>596</v>
+      <c r="B262" t="str">
+        <f t="shared" si="4"/>
+        <v>Provo Customer</v>
       </c>
       <c r="C262" t="s">
         <v>198</v>
@@ -11101,8 +10402,9 @@
       <c r="A263" s="1">
         <v>262</v>
       </c>
-      <c r="B263" t="s">
-        <v>597</v>
+      <c r="B263" t="str">
+        <f t="shared" si="4"/>
+        <v>Santa Rosa Customer</v>
       </c>
       <c r="C263" t="s">
         <v>227</v>
@@ -11130,8 +10432,9 @@
       <c r="A264" s="1">
         <v>263</v>
       </c>
-      <c r="B264" t="s">
-        <v>598</v>
+      <c r="B264" t="str">
+        <f t="shared" si="4"/>
+        <v>Binghamton Customer</v>
       </c>
       <c r="C264" t="s">
         <v>27</v>
@@ -11159,8 +10462,9 @@
       <c r="A265" s="1">
         <v>264</v>
       </c>
-      <c r="B265" t="s">
-        <v>599</v>
+      <c r="B265" t="str">
+        <f t="shared" si="4"/>
+        <v>Olympia Customer</v>
       </c>
       <c r="C265" t="s">
         <v>184</v>
@@ -11188,8 +10492,9 @@
       <c r="A266" s="1">
         <v>265</v>
       </c>
-      <c r="B266" t="s">
-        <v>600</v>
+      <c r="B266" t="str">
+        <f t="shared" si="4"/>
+        <v>Decatur Customer</v>
       </c>
       <c r="C266" t="s">
         <v>62</v>
@@ -11217,8 +10522,9 @@
       <c r="A267" s="1">
         <v>266</v>
       </c>
-      <c r="B267" t="s">
-        <v>601</v>
+      <c r="B267" t="str">
+        <f t="shared" si="4"/>
+        <v>Steubenville Customer</v>
       </c>
       <c r="C267" t="s">
         <v>244</v>
@@ -11246,8 +10552,9 @@
       <c r="A268" s="1">
         <v>267</v>
       </c>
-      <c r="B268" t="s">
-        <v>602</v>
+      <c r="B268" t="str">
+        <f t="shared" si="4"/>
+        <v>Montgomery Customer</v>
       </c>
       <c r="C268" t="s">
         <v>167</v>
@@ -11275,8 +10582,9 @@
       <c r="A269" s="1">
         <v>268</v>
       </c>
-      <c r="B269" t="s">
-        <v>603</v>
+      <c r="B269" t="str">
+        <f t="shared" si="4"/>
+        <v>Sioux City Customer</v>
       </c>
       <c r="C269" t="s">
         <v>236</v>
@@ -11304,8 +10612,9 @@
       <c r="A270" s="1">
         <v>269</v>
       </c>
-      <c r="B270" t="s">
-        <v>604</v>
+      <c r="B270" t="str">
+        <f t="shared" si="4"/>
+        <v>Odessa Customer</v>
       </c>
       <c r="C270" t="s">
         <v>182</v>
@@ -11333,8 +10642,9 @@
       <c r="A271" s="1">
         <v>270</v>
       </c>
-      <c r="B271" t="s">
-        <v>605</v>
+      <c r="B271" t="str">
+        <f t="shared" si="4"/>
+        <v>Grand Rapids Customer</v>
       </c>
       <c r="C271" t="s">
         <v>99</v>
@@ -11362,8 +10672,9 @@
       <c r="A272" s="1">
         <v>271</v>
       </c>
-      <c r="B272" t="s">
-        <v>606</v>
+      <c r="B272" t="str">
+        <f t="shared" si="4"/>
+        <v>Wilmington Customer</v>
       </c>
       <c r="C272" t="s">
         <v>274</v>
@@ -11391,8 +10702,9 @@
       <c r="A273" s="1">
         <v>272</v>
       </c>
-      <c r="B273" t="s">
-        <v>607</v>
+      <c r="B273" t="str">
+        <f t="shared" si="4"/>
+        <v>Wichita Customer</v>
       </c>
       <c r="C273" t="s">
         <v>271</v>
@@ -11420,8 +10732,9 @@
       <c r="A274" s="1">
         <v>273</v>
       </c>
-      <c r="B274" t="s">
-        <v>608</v>
+      <c r="B274" t="str">
+        <f t="shared" si="4"/>
+        <v>Williamsport Customer</v>
       </c>
       <c r="C274" t="s">
         <v>273</v>
@@ -11449,8 +10762,9 @@
       <c r="A275" s="1">
         <v>274</v>
       </c>
-      <c r="B275" t="s">
-        <v>609</v>
+      <c r="B275" t="str">
+        <f t="shared" si="4"/>
+        <v>Washington Customer</v>
       </c>
       <c r="C275" t="s">
         <v>266</v>
@@ -11478,8 +10792,9 @@
       <c r="A276" s="1">
         <v>275</v>
       </c>
-      <c r="B276" t="s">
-        <v>610</v>
+      <c r="B276" t="str">
+        <f t="shared" si="4"/>
+        <v>La Crosse Customer</v>
       </c>
       <c r="C276" t="s">
         <v>131</v>
@@ -11507,8 +10822,9 @@
       <c r="A277" s="1">
         <v>276</v>
       </c>
-      <c r="B277" t="s">
-        <v>611</v>
+      <c r="B277" t="str">
+        <f t="shared" si="4"/>
+        <v>Salt Lake City Customer</v>
       </c>
       <c r="C277" t="s">
         <v>217</v>
@@ -11536,8 +10852,9 @@
       <c r="A278" s="1">
         <v>277</v>
       </c>
-      <c r="B278" t="s">
-        <v>612</v>
+      <c r="B278" t="str">
+        <f t="shared" si="4"/>
+        <v>Danville Customer</v>
       </c>
       <c r="C278" t="s">
         <v>58</v>
@@ -11565,8 +10882,9 @@
       <c r="A279" s="1">
         <v>278</v>
       </c>
-      <c r="B279" t="s">
-        <v>613</v>
+      <c r="B279" t="str">
+        <f t="shared" si="4"/>
+        <v>Peoria Customer</v>
       </c>
       <c r="C279" t="s">
         <v>191</v>
@@ -11594,8 +10912,9 @@
       <c r="A280" s="1">
         <v>279</v>
       </c>
-      <c r="B280" t="s">
-        <v>614</v>
+      <c r="B280" t="str">
+        <f t="shared" si="4"/>
+        <v>Raleigh Customer</v>
       </c>
       <c r="C280" t="s">
         <v>202</v>
@@ -11623,8 +10942,9 @@
       <c r="A281" s="1">
         <v>280</v>
       </c>
-      <c r="B281" t="s">
-        <v>615</v>
+      <c r="B281" t="str">
+        <f t="shared" si="4"/>
+        <v>Texarkana Customer</v>
       </c>
       <c r="C281" t="s">
         <v>252</v>
@@ -11652,8 +10972,9 @@
       <c r="A282" s="1">
         <v>281</v>
       </c>
-      <c r="B282" t="s">
-        <v>616</v>
+      <c r="B282" t="str">
+        <f t="shared" si="4"/>
+        <v>Boston Customer</v>
       </c>
       <c r="C282" t="s">
         <v>31</v>
@@ -11681,8 +11002,9 @@
       <c r="A283" s="1">
         <v>282</v>
       </c>
-      <c r="B283" t="s">
-        <v>617</v>
+      <c r="B283" t="str">
+        <f t="shared" si="4"/>
+        <v>Visalia-Tulare Customer</v>
       </c>
       <c r="C283" t="s">
         <v>264</v>
@@ -11710,8 +11032,9 @@
       <c r="A284" s="1">
         <v>283</v>
       </c>
-      <c r="B284" t="s">
-        <v>618</v>
+      <c r="B284" t="str">
+        <f t="shared" si="4"/>
+        <v>Decatur Customer</v>
       </c>
       <c r="C284" t="s">
         <v>62</v>
@@ -11739,8 +11062,9 @@
       <c r="A285" s="1">
         <v>284</v>
       </c>
-      <c r="B285" t="s">
-        <v>619</v>
+      <c r="B285" t="str">
+        <f t="shared" si="4"/>
+        <v>Charleston Customer</v>
       </c>
       <c r="C285" t="s">
         <v>43</v>
@@ -11768,8 +11092,9 @@
       <c r="A286" s="1">
         <v>285</v>
       </c>
-      <c r="B286" t="s">
-        <v>620</v>
+      <c r="B286" t="str">
+        <f t="shared" si="4"/>
+        <v>Clarksville Customer</v>
       </c>
       <c r="C286" t="s">
         <v>50</v>
@@ -11797,8 +11122,9 @@
       <c r="A287" s="1">
         <v>286</v>
       </c>
-      <c r="B287" t="s">
-        <v>621</v>
+      <c r="B287" t="str">
+        <f t="shared" si="4"/>
+        <v>Abilene Customer</v>
       </c>
       <c r="C287" t="s">
         <v>1</v>
@@ -11826,8 +11152,9 @@
       <c r="A288" s="1">
         <v>287</v>
       </c>
-      <c r="B288" t="s">
-        <v>622</v>
+      <c r="B288" t="str">
+        <f t="shared" si="4"/>
+        <v>Denver Customer</v>
       </c>
       <c r="C288" t="s">
         <v>63</v>
@@ -11855,8 +11182,9 @@
       <c r="A289" s="1">
         <v>288</v>
       </c>
-      <c r="B289" t="s">
-        <v>623</v>
+      <c r="B289" t="str">
+        <f t="shared" si="4"/>
+        <v>Burlington Customer</v>
       </c>
       <c r="C289" t="s">
         <v>38</v>
@@ -11884,8 +11212,9 @@
       <c r="A290" s="1">
         <v>289</v>
       </c>
-      <c r="B290" t="s">
-        <v>624</v>
+      <c r="B290" t="str">
+        <f t="shared" si="4"/>
+        <v>Amarillo Customer</v>
       </c>
       <c r="C290" t="s">
         <v>8</v>
@@ -11913,8 +11242,9 @@
       <c r="A291" s="1">
         <v>290</v>
       </c>
-      <c r="B291" t="s">
-        <v>625</v>
+      <c r="B291" t="str">
+        <f t="shared" si="4"/>
+        <v>Miami Customer</v>
       </c>
       <c r="C291" t="s">
         <v>159</v>
@@ -11942,8 +11272,9 @@
       <c r="A292" s="1">
         <v>291</v>
       </c>
-      <c r="B292" t="s">
-        <v>626</v>
+      <c r="B292" t="str">
+        <f t="shared" si="4"/>
+        <v>Reno Customer</v>
       </c>
       <c r="C292" t="s">
         <v>205</v>
@@ -11971,8 +11302,9 @@
       <c r="A293" s="1">
         <v>292</v>
       </c>
-      <c r="B293" t="s">
-        <v>627</v>
+      <c r="B293" t="str">
+        <f t="shared" si="4"/>
+        <v>York Customer</v>
       </c>
       <c r="C293" t="s">
         <v>277</v>
@@ -12000,8 +11332,9 @@
       <c r="A294" s="1">
         <v>293</v>
       </c>
-      <c r="B294" t="s">
-        <v>628</v>
+      <c r="B294" t="str">
+        <f t="shared" si="4"/>
+        <v>Albuquerque Customer</v>
       </c>
       <c r="C294" t="s">
         <v>4</v>
@@ -12029,8 +11362,9 @@
       <c r="A295" s="1">
         <v>294</v>
       </c>
-      <c r="B295" t="s">
-        <v>629</v>
+      <c r="B295" t="str">
+        <f t="shared" si="4"/>
+        <v>Kalamazoo Customer</v>
       </c>
       <c r="C295" t="s">
         <v>124</v>
@@ -12058,8 +11392,9 @@
       <c r="A296" s="1">
         <v>295</v>
       </c>
-      <c r="B296" t="s">
-        <v>630</v>
+      <c r="B296" t="str">
+        <f t="shared" si="4"/>
+        <v>Rockford Customer</v>
       </c>
       <c r="C296" t="s">
         <v>211</v>
@@ -12087,8 +11422,9 @@
       <c r="A297" s="1">
         <v>296</v>
       </c>
-      <c r="B297" t="s">
-        <v>631</v>
+      <c r="B297" t="str">
+        <f t="shared" si="4"/>
+        <v>Killen-Temple Customer</v>
       </c>
       <c r="C297" t="s">
         <v>128</v>
@@ -12116,8 +11452,9 @@
       <c r="A298" s="1">
         <v>297</v>
       </c>
-      <c r="B298" t="s">
-        <v>632</v>
+      <c r="B298" t="str">
+        <f t="shared" si="4"/>
+        <v>San Francisco Customer</v>
       </c>
       <c r="C298" t="s">
         <v>221</v>
@@ -12145,8 +11482,9 @@
       <c r="A299" s="1">
         <v>298</v>
       </c>
-      <c r="B299" t="s">
-        <v>633</v>
+      <c r="B299" t="str">
+        <f t="shared" si="4"/>
+        <v>Jackson Customer</v>
       </c>
       <c r="C299" t="s">
         <v>116</v>
